--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Desktop\NLP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F27EBBD-D6BF-4DA2-9B7C-780AB10C66D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BED25B-22A1-41C4-AD79-0C8D951D6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,45 @@
   </si>
   <si>
     <t xml:space="preserve">merhaba, 2. sınıfların kayıt günü bugün olduğu halde sistem kayıt gününüz gelmemiştir diyip uyarı veriyor, alttan sadece 1 dersim var halbuki. danışmanıma mail attım öğrenci işlerini arayıp neden sistemde 1. sınıf göründüğünü sorar mısın diyor farkında mı acaba öğrenci işlerine asla ulaşamadığımızın? yarım saattir aralıksız arıyorum ne bi açan var ne de ilgilenen. açtıklarında onlar da yine danışmanıma yönlendirecek başlarından savmak için. ben gerçekten bu okulun bu umursamazlığından çok sıkıldım o kadar para alıyorlar öğrencilerden daha sistemleri düzgün çalışmıyor, çöküyor. hadi diyelim ders seçimini yarın yapacağım acaba kota kalacak mı derslerde? bunaldım gerçekten. </t>
+  </si>
+  <si>
+    <t>Dakka 1 gol 1 hemen çöktü güzel okulumuzun güzel ders seçme sayfası yahu sadece 4. Sınıflar seçiyor ama yine de çöküyor altı üstü kaç bin kişi var da düzgün bi site yapamıyorlar</t>
+  </si>
+  <si>
+    <t>maslak kampüsünün şileye taşınmasıyla birlikte yurt kapasitesinin çok üstünde bir başvuru olmuş. bu da demek oluyor ki başvuru yapan herkes kabul edilemeyecek ve açıkta kalacak. ayrıca yurt sonuçları okulun açılmasından 1 hafa önce belli olacak yani hala belli değil. diyelim ki yurt başvurumuz kabul edilmedi sokakta mı yatmamız gerekiyor?! madem okulda yeterince yurt kapasitesi yok o zaman kampüs taşımanın acelesi mi vardı? hadi taşıdın diyelim bu sorunlar niye gözardı ediliyo? bir alternatif düşünülmemiş ve öğrencilerin de bir alternatif plan yapmasına fırsat bile tanınmıyor. 1 hafta içerisinde insanlar nasıl başka bir yer bulsun? o kadar heyet kurul bilmem ne bu kadar karar alıyor da birinin de aklına bu problemler gelmiyo mu? hadi diyelim geldi ve gözardı ettiler, e bari düzgün bir açıklama yapın, ihtimallerden bahsedin, en önemlisi erken davranın..</t>
+  </si>
+  <si>
+    <t>Mali işlere yazıyorum öğrenci işlerine aktarıyor oraya yazıyorum başka bi yere aktarıyor. Telefonlar kesinlikle açılmıyor . Sorunlar kesinlikle çözülmüyor. Mahalle bakkalım daha iş bitirici bu okul çalışanlarından. Yazık</t>
+  </si>
+  <si>
+    <t>Yani bu nasıl mantık ben anlamış değilim. Maslaktan Şileye gelen öğrenciye %50 indirim yapıldığı zaman yurtlarda, zaten halihazırda şilede okuyan, yurtlarda kalmak durumunda olan öğrencilere haksızlık olmayacak mı? Bizler niye her lafa boyun eğiyoruz yetişkin insanlar olarak niye mantıksız kararlara itiraz etmiyoruz? Ya da en basitinden öğrenci konseyi (!) böyle rezil bi kararı paylaşabiliyor? Tamam maslaktakilerin de kampüs hayatı yaşayacak olması çok iyi onlar adına seviniyorum ama kimsenin hakkı gasp olmadan olmalı bu iş. Umarım konsey itiraf sayfalarını okuyordur ve yanlışlarını görüyordur.</t>
+  </si>
+  <si>
+    <t>Hocalarımız neden Final notlarını açıklamamakta diretiyorlar? Neden biz finalden kaç aldığımızı öğrenemiyoruz? Mail atıyorum Hoca harf notlarını girdim finalleri açıklamıyorum diyor yani amaç ne ?</t>
+  </si>
+  <si>
+    <t>Ağustos'ta ödeyip ödeme dekontunu mail atıp teyidini aldığım yurt borcumu sistemden silmedikleri ve 2 gündür ne bir mailime ne de bir telefonuma cevap vermedikleri için ders seçemedim. Teşekkürler ışık üniversitesi, harika bir üniversite deneyimi yaşatıyorsun gerçekten.</t>
+  </si>
+  <si>
+    <t>Işık üniversitesi yine öğrencisiyle dalga geçmeye devam ediyor. İki fakülteyi şileye taşı ama iki tane servis ver geç. Öğrencisini hiçe sayan, sadece müşteri olarak gören bir kurum.</t>
+  </si>
+  <si>
+    <t>Okulun acılmasına aşağı yukarı 1 ay var ve hala online mı yüz yüze mi belli değil. Bu insanlar ne zaman ev/yurt bakacak? Neden acıklama yapmıyorlar? Okul online olursa hem çalışıp hem okuyacak arkadaşlar var, yüz yüze olursa şehir dışından gelecek insanlar var... Neden yani her şeyi bu kadar yokuşa sürmek neden? Okula yeni gelen arkadaşlar; cehenneme hoşgeldiniz.</t>
+  </si>
+  <si>
+    <t>Demeyim demeyim dedim ama okulda Öğrenci Konseyi yok arkadaşlar. Başkanı kim, ne zaman seçildi, kim seçti bilen var mı? Devir teslim düzeninin olduğu, öğrencilerin seçmediği konseyin (çalışsalar bile) öğrencilere faydası ne kadar olabilir? Büyük hayaller, tarihi, güzel kampüsü hatta sırf adını Atatürk verdiği için gururlandığım, "Işıklı" olmanın ayrıcalık olduğunu düşündüğüm bir başlangıçtan utanarak mezun olma kısmına getirdiler beni. Umarım Türkiye gibi hak ettiği değişimi her alanda görür ve eskiye döner. Kalanlara sabır diliyorum.</t>
+  </si>
+  <si>
+    <t>Boşuna çene yoruyorsunuz. Burası bir okul değil ticarethane. Okul, pandemi dolayısıyla 2 dönem online oldu, bir ton masraftan kurtuldular ama yine de öğrencileri düşünüp indirim yapmak yerine fiyatları arttırdılar. Sonradan kdv'yi az aldılar. Hocalar desen not açıklamaz, kafasına göre not verir. Shuttle'lar desen git-gel 50 lira. Şimdi de giderleri en aza indirip herkesi bir kampüste toplayıp daha çok kazanacaklar. Bu kararı da şile belediyesi ile karşılıklı çıkar ilişkisi güderek almadılarsa ben de hiçbir şey bilmiyorum. Yeni tercih etmeyi düşünüp de burayı okuyan varsa GELMEYİN kardeşim bu okula. Batsınlar. Ya kaydınızı alın ya da mezun olup kurtulun.</t>
+  </si>
+  <si>
+    <t>Admin gizli olsun ya ben bu ekonomi hocalarının sınav kurallarını anlamaya çalışıyorum acaba kendileri derslerde slayt okumaktan başka bir iş yapmayıp konuyu adam akıllı öğretememelerinin faturasını bize katı kuralları koyarak mı kesiyorlar anlamadım ki kalem kullanma anladık ulan ses duyduğunda disipline göndermek veya puan kırmak nedir nefes alma diyorlar resmen insana.</t>
+  </si>
+  <si>
+    <t>Hocalar olarak yapabileceğimiz bir şey yok tavrı takınan politik doğrucu hocalarımıza şunu söylemek istiyorum; en azından bu kararı desteklemediğinizi söyleyin, öğrencilerin mağduriyetinden bahsedin. Öğrencinin mi, maaş çeklerinizin mi dostusunuz oturup bir düşünün.</t>
+  </si>
+  <si>
+    <t>okulu arayınca mail atmam gerektiğini söylüyolar fakat attığım maile günlerdir cevap vermiyolar.Bu öğrenci işlerine ulaşmak ne kadar zormuş. Başka ne şekil ulaşabilirim ? illa okula mı gitmem lazım ulaşabilmek için.</t>
   </si>
 </sst>
 </file>
@@ -394,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +567,118 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Desktop\NLP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BED25B-22A1-41C4-AD79-0C8D951D6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE52675C-69E5-4698-976A-340C94B1528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33135" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -115,6 +115,69 @@
   </si>
   <si>
     <t>okulu arayınca mail atmam gerektiğini söylüyolar fakat attığım maile günlerdir cevap vermiyolar.Bu öğrenci işlerine ulaşmak ne kadar zormuş. Başka ne şekil ulaşabilirim ? illa okula mı gitmem lazım ulaşabilmek için.</t>
+  </si>
+  <si>
+    <t>5 Şubattan beri yayınlanan ders programından dün ders çıkarıldı ve programlarımız onaylanmışken oldu bu. Yeniden sistem açtırıp ders seçmek zorunda kaldık. Bu durumda birçok derste kota sorunu ve çakışma ile karşılaştık. Diyecek en ufak bir sözüm bile yok sana ışık üniversitesi..</t>
+  </si>
+  <si>
+    <t>Gecen donem online diye acilmayan lab derslerini bu donem oyle bi ayarlamislari ki her dersle cakisiyor ve okul 1 dersten fazla cakismaya izin vermedigi icin dersleri alamiyoruz okulumuz 1 sene daha uzuyor.Herkes magdur bu durumdan dersleri acilmamasi okulun sorunu degilmis gibi birde destekte olmuyorlar ogrenciye.Bu sekilde magdur olan arkadaslarimiz varsa gonderiyi begensin topluca rektorluge mail atalim yeter artik bu okul nasil biticek yoksa?!</t>
+  </si>
+  <si>
+    <t>Bir dönem boyunca her dersine girdiğim, hiçbir guizini kaçırmadığım ve bütün ödevleri eksiksiz tamamladığım dersten sırf sunum yapmadığım için kaldığımı öğrendim. Dönem boyunca harcadığım zamanımı ve emeğimi çöpe attılar resmen. Işık üniversitesi allah belanı versin gençliğimizi çürüttün.</t>
+  </si>
+  <si>
+    <t>Her gecen gun bilgisayar muhendisligi hocalari daha da dusuncesiz davranamazlar diyorum ve her seferinde yaniliyorum. SOFT dersi icin gonderilen sinav yonetmeligini bir gorseniz yani bu baski altinda bilende unutur zaten yapamaz. "Sozde" calisanin hakkini korumak icin alinan onlemler gercegi yansitmiyor bu yuzden umarim en kisa zamanda okullar acilir ve bildigimiz derslerden kalmayiz.</t>
+  </si>
+  <si>
+    <t>Okulumuzda öyle bir eğitim anlayisi var ki hocanın şakşakcısı olursan tüm dersleri en kötü ba ile geçerken, gruptan aykırı bir şeyler başaran biri olursan dc dd gibi notlarla geçiyorsun. Sorarım sizlere biz şak şak için mi eğitim alıyoruz, başarı için mi?</t>
+  </si>
+  <si>
+    <t>Sınavı respondusta yaparken 15 dakika içinde çöktü bilgisayar. Daha ne yapmamız gerekiyo derdimizi anlamaları için.</t>
+  </si>
+  <si>
+    <t>Merhaba herkese, Tıpkı maillerdeki gibi başlamak istedim. Görünüşte ilgili ve bir o kadarda fikirlerimize duyarlı bir okul gibi gözükse de gerçek sadece mağduriyetten ibaret ENGL1301 sınavı tam bir rezaletle ile karşı karşıyaydık bu okul bana ilk dönemim olmasına rağmen stres sıkıntıdan başka birşey vermedi Işık üniversitesi hayatımı aydınlatmadan ziyade hayatımı kararttı. Haksızlık bu respondusss yerine çözüm bulunmalı. 2 dönem umarım yüzyüze egitim olur.</t>
+  </si>
+  <si>
+    <t>Makine mühendisliği okuyup statik dersinin finaline giren arkadaşlarla aynı problemi yaşadık klasik soru sorup zoomdan kamera açtırıp her soru için 2 3 şıklı yapıp ve her soru için 10 dk süre verip fotoğrafını çekip sisteme yükleme gibi bi eziyet inanınki insanlığa sığmaz ve bu dersi verememek okulu 1 sene uzatmak demek. Şikayette bulunsak derse giren hocaya ters düştüğümüz taktirde okul olcak 8 sene başka üniversitede okuyan arkadaşlarım böyle bi sınav çeşidi olmaz derken biz nie hala bu eziyetlere katlanmak zorunda kalıyoruz anlamıyorum yazıklar olsun diyip geçicem.</t>
+  </si>
+  <si>
+    <t>Respondus kullanılan ekonomi sınavında 45 soruya 60 dakika vermek. Kolumuzu kıpırdatamıyoruz zaten neden bu kadar soru sayısı anlamış değilim ?</t>
+  </si>
+  <si>
+    <t>Bir üniversite düşün ki her hoca sadece kendi dersi varmışçasına ödevler projeler veriyor. Bir dersin bir dönemde 2 proje ,4 guiz, 2 vize, 1 finali olursa nasıl yetişecek diğer dersler? Birisi de ödevi el yazısıyla istiyor hani word kullanmak kolay ya.Hayret ediyorum. Amatörlük mü,art niyet mi karar sizin.</t>
+  </si>
+  <si>
+    <t>Okulumuzdaki bazı hocalar,bu bazı hocalara şanslıyım ki benim dersine girdiklerim dahil değil ama bu buraya bir şey yazmamam için bi sebep değil.Özellikle malum fakültedeki öğrencilere ne yapsak da ızdırap çektirsek diye düşündüklerini düşüneceğiz yakında.Ya her şeyden önce insan bu öğrenciler.Tamam zorluyorsunuz bu bir yandan iyi bir şey onlar için ama bir yandan da insanların ailesinde hasta olanlar uğraşanlar edenler var,donanım problemi yaşayanlar var,malum programın bilgisayarı aptal etmesinden dolayı sorun yaşayanlar var ve bu uygulamayı guizler sırasında istiyorlar guiz esnasında dondu kaldı tanıdıgımın bilgisayarı.Neden bu eziyet neden? Zaten bir sürü para ödüyoruz artık gerçekten insanları derste bırakmaya uğraşıyorlar! Ben dediğm gibi öğrencilerine bu tür zulümler uygulayan desek yanlış olmaz onlarla aynı derslere denk gelmiyorum AMA bir sürü öğrenciye yazık günah.Gerçekten hoşgörülü olan canım hocalarıma da teşekkürlerimi sunuyorum.Zor dönemden geçen bir insanız hepimiz.</t>
+  </si>
+  <si>
+    <t>Sınav kağıdımı başka bir üniversitede hoca olan bir tanıdığıma gönderdim ve notlandırmasını rica ettim. İşlem hatasına göz yumamadığını ve 68 verdiğini söyledi. Bizim okuldaki hoca 19 vermiş 19. Bazı hocalar cidden kafayı yemiş durumda. Aile büyüklerimin hepsi korona nerdeyse. Hepsine ben yetişmeye çalışıyorum. Babanem düşüp omuzunu kırdı. Hareket edemiyor herşeyine ben koşuyorum. Annanemle dedem korona ve ağır geçiriyorlar. Dedem yoğun bakımda. Annanemede ben bakıyorum. Alzheimer hastası. Her saat dedemin nerde olduğu halkında yalan söyleyip tansiyonunu düşürmeye sakinleştirmeye çalışıyorum. Maddi durumumuz da yeterli değil. Kendim internetten bi şekilde para kazanmaya çalışıyorum ihtiyaçlarımızı karşılamak için. Bunların hiç birinden şikayetçi değilim. İsyan da etmiyorum. İsyan ettiğim şey bukadar karmaşanın içinde ders çalışmaya vakit ayırmaya çalışıyorum. Çünkü seneye bursum kesilecek ve ödeyemem.</t>
+  </si>
+  <si>
+    <t>Zaten çok zor bir süreç yaşarken online eğitimle cebelleşirken neredeyse bütün akademisyenlerin Dersleri anlatmaya bile yeltenmeyip Google'dan bakın internetten bakın araştırın ve öyle çizin öğrenin demesi artık kafayı yememe sebep oluyor biz öğrenciler olarak bu süreçte iyisiyle kötüsüyle belki de en çok derslere fokuslandık ama akademisyenler her şey normalmiş gibi itirazlarımızı bile tembelliğe vuruyor ayrıca hiçbir şekilde gerçekten öğrenmek istediğimiz için ve anlatmaya tenezzül etmedikleri için sitem ettiğimizi fark edemiyorlar Artık bıktım tüm sorunlarla boğuşurken derslerden kalma korkusuyla öğrenmeden kopyalayarak çizim yapmaktan da bıktım beni buna zorlayan sistemden de bıktım lütfen bazı şeylere tepki göstermekten çekinmeyin 1-2 kişi tepki gösterince bunu tembel öğrencilerin ses çıkarması olarak algılıyorlar ama çoğunluk tepki gösterirse gerçekten değiştiremeyeceğimiz hiçbir şey yok ışık öğrencisinin bunun farkına varması gerekiyor birlikten kuvvet doğar.</t>
+  </si>
+  <si>
+    <t>Merhaba kolay gelsin, şu konuya kimse değinmiyor ama hocaların çoğunluğu derse haber vermeden geç geliyorlar. Yeri gelince örgünden farkı yok artık alıştınız diyen hocalarımızdan ricam bir zahmet örgünde ki gibi vaktinde yataktan çıkıp derse gelmeleri. Gerçekten PC başında saatler harcarken artık 1 dakikasının bile bir hocayı beklemekle geçmesine katlanamaz oldum.</t>
+  </si>
+  <si>
+    <t>Bu okulda hakkınızı aramaya çalışmayın arkadaşlar boşa çabalarsınız hiç bişey değiştirmez çabalarınız sınavları geç bitirme projelerinizde bile o kadar büyük hakkınızı yiyorlar ki aklınız almıyo kişiye göre ayrımcılık desen o da var işleri yarım insanlar yüksek not alırken tam anlamıyla herşeyini tamamlamış insanların en düşük notu alması gibi hakkını savunmaya çalıştıgında dekanlığa bile gitsen yapılanları anlatsan hakkını arasan hiç bişey değişmiyo ne de olsa kendi hocaları onları savunacaklar öğrenciyi kim savunsun öğrenci dersten kalsın okula paralar gelsin onların en çok istiyeceği şey o yüzden çabalamayınn arkadaşlarr daha çok üzüleceksiniz bu okulda.</t>
+  </si>
+  <si>
+    <t>Dersin ismini vermeyeceğim. İlk defa başıma geliyor ve yazmak istedim. Bu sıradan bir serzeniş olmayacak. Yazının devamını yazdım fakat sildim. Mesele sınav kuralları ile alakalıydı. Her şeyi geçtim, sadece şu konuda çok üzgünüm. Biz öğrenciler hakkımızı arayamıyoruz herhangi bir konuda. Okul dediğimiz bina bize teoriden başka hiçbir şey öğretmiyor. Bize hayata dair bir şeyler vermeli. Hakkımızı aramamız gerektiğini hatırlatmalı fakat başımıza bir şey gelir diye susuyoruz. Okul bizi, hayata karşı daha korkak hale getiriyor ama farkında değiliz. Bu sadece bu okul nezdinde değil. Türkiye'deki bütün okullar böyle. Benim çok başıma geldi. Okuldayken hocanın karşısında iki büklüm oldum defalarca. Bu korku düzeni değişmeli.</t>
+  </si>
+  <si>
+    <t>Derste respondus programının bilgisayara zarar verdiğini, bazı bilgisayarların çökmesine neden olduğunu söyledim ve çok komik bir yanıt aldım hocamız abartmayın madem çöküyorsa verilerinizi başka bir yere yedekleyin sorun ortadan kalkmış olur dedi, herkesin durumu olmayabiliyor benim için verilerden çok bilgisayarım daha önemli bilgisayarımda bir sorun oluştuğunda sanki aynı gün tekrar bilgisayar alabilecekmişim gibi davranıldı. Hocaların kendileri, öğrencilerden daha çok teknik problem yaşarken bizlerden bu kadar şeyi aynı anda yerine getirilmesini zorunlu tutmaları çok anlayışsızca eğitimci olarak ilk başta anlayışlı olmaları ve empati kurabilmelerini diliyorum.</t>
+  </si>
+  <si>
+    <t>Merhaba respondus artık gerçekten çalışmamaya başladı, bu zamana kadar takır takır çalışıyordu fakat 3 gündür uygulamada sorun yaşıyorum. Respondus uygulaması beni sınava almadı ilk 8 dakika, bütün kamera ve mikrofonu tanımladı yani bütün aşamalara onay verdi fakat en sonda sınavı başlatmadı, yüzümü tanımlamadığını belirtti her açıdan denememe rağmen birkaç dakika bu nedenden ötürü respondusu kapatıp tekrar yaptım. Bu yakın bir zamanda sizin de başınıza gelebilir. Lütfen artık birlik olup bu durumu düzeltelim.</t>
+  </si>
+  <si>
+    <t>Bir şey söylemek istiyorum, yaz okulu dönemi respondus ve webcam eklentisi hakkında ben arkadaşlarımıza uzuncana açıklama yaparken bize "çalış dersi geç", "ağlama", "okul okuyorsan yapacaksın" vb tepkiler veren arkadaşların bir kısmı dahil olmak üzere, bizi sallamayı geçtim bir de dalga geçenler dahil tutuşmuş şekilde çözüm arıyorlar, gerçekten gülünç durumdasınız. He belirteyim, aldığım derslerde respondus isteyen yok şu an ancak gelin şu durum beter hal almadan düzgün bir çözüm bulalım, hep birlilte. Tweet atmakla ses duyuramadık, cimer de çok ciddiye almıyor açıkçası, ya çözeceğiz ya da geçmiş olsun arkadaşlar.</t>
+  </si>
+  <si>
+    <t>Böyle bir saçmalık yok arkadaşlar hepimiz bir olalım ve şu kamera sistemini lütfen iptal ettirelim bahsettiğim sınav İngilizce sınavı ve hocalar acımasızca bize kameranı yoksa kamera alın diyor bu nasıl bir tavır belki benim durumum yok nerden biliyorsun madem öyle sevgili hocalarımız bize kamera alsın ben özel hayatıma müdahale edilmesini istemiyorum sonuç itibari ile uzaktan eğitim bizim isteğimizle olmadı bu kadar sıkıcaklarına bizi okula çağırıp gerekli önlemleri alıp bizleri okulda sınavda yapsınlar arkadaşlar gelin twitinde ıstegramda birlik olup şu işlemi iptal ediyorum ayrıca ben çalışıyorum 1:30 saat sınavmı olur nasıl yapacağımı kara kara düşünüyorum lütfen bir olalım bize destek çıkın lütfen bugün bize yarın size büyütelim bu olayı.</t>
+  </si>
+  <si>
+    <t>Merhaba respondus uygulaması ile ilgili bir şey belirtmek istiyorum. Sınav saati normalde 30 dakika, fakat respondusa girmeye çalıştığım sırada beni sınava almadı. "Yoğunluktan dolayı sizi sınava alamıyoruz, lütfen birkaç dakika bekleyin" yazısı ile karşı karşıya kaldım. Sınavı daha kısa sürede yapmak zorunda kaldım. Ayrıca bilgisayara yeni format atmama rağmen respondusu yükledikten sonra bilgisayarım yavaşladı ve de bazı uygulamalar çalışmamaya başladı. Lütfen bu konu hakkında birlik olup cimere yazalım.</t>
   </si>
 </sst>
 </file>
@@ -433,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,6 +742,174 @@
         <v>29</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Desktop\NLP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE52675C-69E5-4698-976A-340C94B1528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D66AE-0B56-4B69-8CAC-18CEA9CB17D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33135" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,14 +900,6 @@
       </c>
       <c r="B49" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Desktop\NLP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D66AE-0B56-4B69-8CAC-18CEA9CB17D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9747D562-BAC2-4B13-80DE-2C88CCBDF518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33135" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -178,6 +178,96 @@
   </si>
   <si>
     <t>Merhaba respondus uygulaması ile ilgili bir şey belirtmek istiyorum. Sınav saati normalde 30 dakika, fakat respondusa girmeye çalıştığım sırada beni sınava almadı. "Yoğunluktan dolayı sizi sınava alamıyoruz, lütfen birkaç dakika bekleyin" yazısı ile karşı karşıya kaldım. Sınavı daha kısa sürede yapmak zorunda kaldım. Ayrıca bilgisayara yeni format atmama rağmen respondusu yükledikten sonra bilgisayarım yavaşladı ve de bazı uygulamalar çalışmamaya başladı. Lütfen bu konu hakkında birlik olup cimere yazalım.</t>
+  </si>
+  <si>
+    <t>Biz bu okula boşuna mı para veriyoruz veya verdiğimiz para nereye gidiyor, dk otomatları günlerdir bomboş, sebillerin çoğunda su bulunmuyor bunun sebebi nedir?</t>
+  </si>
+  <si>
+    <t>Geçenlerde yurtta bir yemek yapalım dedik vaziyet bu, daha önce bir sürü onur kırıcı söz yazıldı, hakaretlerde bulunuldu, şikayet edildi ve halen yine aynı durumu yapmaya devam ediyorlar açık açık ne istediklerini söylesinler onlar da rahat etsin biz de rahat edelim.</t>
+  </si>
+  <si>
+    <t>Çöpünüzü çöpe atmayı çoktan öğrenmiş olmanız gerekiyordu ama ne yazık ki öğrenememişsiniz. Kütüphanedeki camlı odaları lütfen pis bırakmayın kimse sizin çöpünüzü toplamak zorunda değil.</t>
+  </si>
+  <si>
+    <t>Pandemi önlemi altında vize haftası yaptılar ancak bir sınıfta 60 kişi sınava giriyoruz. Herkes yanyana oturuyor ve minimum 2 saat aynı kalabalıkta öksüren hapşıran insan kalabalığı ile birlikteyiz. Önlemden kastınız bu mu?</t>
+  </si>
+  <si>
+    <t>Birisi bana açıklayabilir mi aklım almıyor çünkü. Bu okul sanki dağ başında değilmiş gibi saat 8:30 a sınav koyuyorlar. Servise gidiyorsun serviste yer yok, otobüs seferleri kısıtlı. Lisede bile sınavlar en kötü ihtimal 2. derste yapılırdı. Merak ediyorum aklı başında bir yetkili bunları düşünemiyor mu? Kusura bakmayın ama bütün sorumluluk bizler de değil. Bu sınav programını yapanlar keşke biraz anlayışlı olsa.</t>
+  </si>
+  <si>
+    <t>Sınav takvimini açıklamak yerine sınav haftası yurtlarda konaklama ücretini açıklayan bir okulumuz var. Tek dertleri para. Öğrenciler umurlarında değil maalesef.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merhabalar, acaba bu okul sınavlar ile ilgili herhangi bir açıklama yapacak mı? Derslerimin hepsi online ve kalacak yer bulamıyorum. Ben gibi bir çok arkadaşım da mağdur. Sınavlara 1 hafta kalmışken bize hiçbir açıklama yapılmıyor bu hafta haber vericez diyorlar neyi verecekler acaba? Son 3 gün kala bunca insan nerde kalacak, herhangi bir şeyden haberi olan varsa yazabilirse çok sevinirim. </t>
+  </si>
+  <si>
+    <t>Merhaba arkadaşlar bir şey sormak istiyorum. 1. sınıfta üstten ders almak için gerekli şartlar neler? Bilen varsa yardımcı olursa çok sevinirim teşekkürler.</t>
+  </si>
+  <si>
+    <t>Merhaba, masa tenisi klübü hakkında bilgi almak istiyorum klüpte yetkili biri ulaşabilir mi ya da beğensin ben ulaşırım</t>
+  </si>
+  <si>
+    <t>Merhabalar, okulu dondurmak istiyorum ne yapmam gerekiyor bilgi verebilir misiniz öğrenci işlerini aradım ama ulaşamadım bilgilendirirseniz sevinirim.</t>
+  </si>
+  <si>
+    <t>Merhaba bana okuldan mail olarak 4333 TL tutarında e-arşiv faturası gönderilmiş. Mail olarak geri dönüş yaptım ancak cevap gelmedi. Bunun manası ne oluyor tam olarak? Başka bu maili alan var mı?</t>
+  </si>
+  <si>
+    <t>Okulun shuttle saatileriyle ilgili kime gitmek gerekiyor. Cumartesi günü en geç 21:00'da maslaktan servis var, eskiden 00:00 servisleri olurdu. Bi rahatsız olan ben olamam bu durumdan. Konsey mi artık kim ilgileniyor bunula gidelim görüşelim.</t>
+  </si>
+  <si>
+    <t>Arkadaşlar okulda ya da derslerde maske takmıyorsunuz, size yaklaşmıyoruz anladık ama servislerde takın bari. 1 saat yüzüne yapışmaz o maske merak etmeyin!</t>
+  </si>
+  <si>
+    <t>Add drop haftası haftaya mı başlıyor. Staj raporlarını haftaya mı vermeye başlayacağız?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oryantasyon kapalı spor salonunda devam ediyo harika tedbir, hayet kalabalık ortamlar falan paylaşımlar yapılıyor. Festival havası var Işık'ta bizim mezuniyetimize niçin aynı özen gösterilmedi. </t>
+  </si>
+  <si>
+    <t>Ders programı hala belli olmayan var mı benim dışımda?</t>
+  </si>
+  <si>
+    <t>Merhaba, pandemi şartlarındayız ve okul cidden anlamda çok pis. Cafeler, yemehaneler, sınıflar, lavaboları hiç demiyorum. Heryer çok pis ya öğrenciler pis ya da okul temizliğe dikkat etmiyor.</t>
+  </si>
+  <si>
+    <t>Arkadaşlar son dersimi de bu yaz verdim, temmuzdan sonrasında işlendi sisteme. Öğrenci işleri diyor ki yapmanız gereken işlemler var vesaire. Tam ne diye soracakken hat kesiliyor, bir daha da bağlanamıyorum. Mezuniyet için yapmanız gereken işlemler neler? Bir de diyor ki seneye kaldı sizin mezuniyetiniz. Bilgi verebilecek var mı?</t>
+  </si>
+  <si>
+    <t>Ders programımı yaptım ama bir sorundan dolayı onay için danışmana gönderemedim. Blackboard'umda dersler gözükmüyor ancak e-campus'te gözüküyor. Bana sorun çıkartır mı?</t>
+  </si>
+  <si>
+    <t>Merhaba, birinci sınıfların paket program ataması hala yapılmadı mı? E-campus'e girildiği zaman ders programı gözükmüyor. Herkes de böyle mi?</t>
+  </si>
+  <si>
+    <t>Okulun futbol takımı seçmeleri ne zaman oluyor bilen var mı acaba?</t>
+  </si>
+  <si>
+    <t>OOC kredili ve kredisiz dersler ne oluyor tam olarak kısaca açıklar mısınız?</t>
+  </si>
+  <si>
+    <t>İkinci doz aşımı yeni oldum en az 14 gün önceden yaptırmak gerekli miydi? Negatif pcr istenir mi okula girerken?</t>
+  </si>
+  <si>
+    <t>Arkadaşlar Emine Ekin'den neden bin tane mail alıyorum? Bir tek bana mı böyle? Gerçekten mail kutum hep ondan gelen maillerle dolu. Bu diğer arkadaşlardan kaynaklanıyorsa lütfen dikkat edebilirler mi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkadaşlar yurt taksidi ödeme seçeneği nasıl oluyor? Yurt anlaşmalı bankalardan tahsil ediyor da biz bankaya mı aylık olarak ödüyoruz? </t>
+  </si>
+  <si>
+    <t>Merhabalar Işık'tan yatay geçişle başka bi okula geçip sonrasında tekrar Işık'a geçme gibi bir durum yaşayan var mı?</t>
+  </si>
+  <si>
+    <t>Ohes4412 dersi örgün gözüküyor ama o ders normalde de online değil miydi? Ve bu derste çakışma sayılmıyordu diye hatırlıyorum doğru mu?</t>
+  </si>
+  <si>
+    <t>Merhaba, Bilişsel Süreçler ya da Psikopataloji dersini üstten almak istiyorum. Kalsam aynı dersi ücret ödemeden kendi döneminde tekrar alabilir miyim?</t>
+  </si>
+  <si>
+    <t>Ben hazırlık okuyordum kaldım ve okulumu  dondurup şubat ayındaki sınava kaydım donuk bir şekilde gireceğim fakat kayıt dondururken okula herhangi bir ücret ödeyecek miyim?</t>
+  </si>
+  <si>
+    <t>Ders programında derslerim online görünüyor fakat excel tablosunda hibrit yazıyor hangisi doğru?</t>
   </si>
 </sst>
 </file>
@@ -496,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,6 +992,246 @@
         <v>49</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Desktop\NLP\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha.ozcelik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9747D562-BAC2-4B13-80DE-2C88CCBDF518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12444"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -268,12 +267,51 @@
   </si>
   <si>
     <t>Ders programında derslerim online görünüyor fakat excel tablosunda hibrit yazıyor hangisi doğru?</t>
+  </si>
+  <si>
+    <t>Okulun ücretli-ücretsiz shuttlelarında neden hiç geç saatlere kampüse ulaşım sağlayamıyoruz, sağlayabilecek bir sefer yok? Öğrenciyiz, yurtlarda kalıyoruz Şile'ye genel olarak ulaşım sıkıntılı geç saatlerde (00:00 vs.) ulaşılabilecek hiçbir olasılığımız yok. Biz bir konsere bir tiyatroya akşam vakti gidemeyecek miyiz, gittik nasıl döneceğiz?</t>
+  </si>
+  <si>
+    <t>İnternet alt yapısının sıkıntıları yüzünden derslerime giremiyorum. Dünden beri WeTransfer'den dosya göndermeye çalışıyorum. 1.3 gb'lık dosyayı 24 saat oldu şuan 12 saat daha ekledi.</t>
+  </si>
+  <si>
+    <t>Selamlar, kampüse gelmeden online olarak ilişiği kesebiliyor muyuz?</t>
+  </si>
+  <si>
+    <t>Okulun satranç klübü var mı?</t>
+  </si>
+  <si>
+    <t>İnternete bağlanmakta sorun yaşıyorum iki gündür. Beyaz ekranda kalıyor. Online derslerime bağlanamıyorum. Bu internet sorunları ne zaman düzelecek Işık Üniversitesi?</t>
+  </si>
+  <si>
+    <t>DMF'deki dolapları direkt olarak kullanabiliyor muyuz yoksa öncesinde dilekçe, ücret vs. gerekiyor mu?</t>
+  </si>
+  <si>
+    <t>Müzik evini kullanmak serbest mi acaba? Randevu falan alınıyor mu?</t>
+  </si>
+  <si>
+    <t>Kampüs içinde olan Komogene'nin numarasını bilen varsa yazabilir mi?</t>
+  </si>
+  <si>
+    <t>Shuttle Kozyatağı'nda nereden geçiyor?</t>
+  </si>
+  <si>
+    <t>Merhabalar, yurtların alt katındaki misafirhaneler hakkında bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Merhaba, Türkçe bölüm okuyorum, İngilizce bir ders seçmiştim. O dersin Türkçe'sine nasıl geçiş yapabilirim, bilginiz var mı?</t>
+  </si>
+  <si>
+    <t>Kadıköy'den kalkan shuttle Atatürk Caddesi Starbucks'ın önünde duruyor mu?</t>
+  </si>
+  <si>
+    <t>Kadıköy'den kalkan shuttle tam olarak nerede ya Libadiye'den nasıl gidebilirim?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,19 +623,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -616,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -624,7 +662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -632,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -640,7 +678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -648,7 +686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -656,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -664,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -672,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -680,7 +718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -688,7 +726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -696,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -704,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -712,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -720,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -728,7 +766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -736,7 +774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -744,7 +782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -752,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -760,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -768,7 +806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -776,7 +814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -784,7 +822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -792,7 +830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -800,7 +838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -808,7 +846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -816,7 +854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -824,7 +862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -832,7 +870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -840,7 +878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -848,7 +886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -856,7 +894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -864,7 +902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -872,7 +910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -880,7 +918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -888,7 +926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -896,7 +934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -904,7 +942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -912,7 +950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -920,7 +958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -928,7 +966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -936,7 +974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -944,7 +982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -952,7 +990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -960,7 +998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -968,7 +1006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -976,7 +1014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -984,7 +1022,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -992,7 +1030,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1000,7 +1038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1008,7 +1046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1016,7 +1054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1024,7 +1062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1032,7 +1070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1040,7 +1078,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1048,7 +1086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1056,7 +1094,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1064,7 +1102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1072,7 +1110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1080,7 +1118,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1088,7 +1126,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1096,7 +1134,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1104,7 +1142,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1112,7 +1150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1120,7 +1158,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1128,7 +1166,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1136,7 +1174,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1144,7 +1182,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1152,7 +1190,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1160,7 +1198,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1168,7 +1206,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1176,7 +1214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1184,7 +1222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1192,7 +1230,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1200,7 +1238,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1208,7 +1246,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1216,7 +1254,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1224,12 +1262,116 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha.ozcelik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Desktop\NLP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2D5CB-A473-40A6-B911-D264D861ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12444"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -122,9 +123,6 @@
     <t>Gecen donem online diye acilmayan lab derslerini bu donem oyle bi ayarlamislari ki her dersle cakisiyor ve okul 1 dersten fazla cakismaya izin vermedigi icin dersleri alamiyoruz okulumuz 1 sene daha uzuyor.Herkes magdur bu durumdan dersleri acilmamasi okulun sorunu degilmis gibi birde destekte olmuyorlar ogrenciye.Bu sekilde magdur olan arkadaslarimiz varsa gonderiyi begensin topluca rektorluge mail atalim yeter artik bu okul nasil biticek yoksa?!</t>
   </si>
   <si>
-    <t>Bir dönem boyunca her dersine girdiğim, hiçbir guizini kaçırmadığım ve bütün ödevleri eksiksiz tamamladığım dersten sırf sunum yapmadığım için kaldığımı öğrendim. Dönem boyunca harcadığım zamanımı ve emeğimi çöpe attılar resmen. Işık üniversitesi allah belanı versin gençliğimizi çürüttün.</t>
-  </si>
-  <si>
     <t>Her gecen gun bilgisayar muhendisligi hocalari daha da dusuncesiz davranamazlar diyorum ve her seferinde yaniliyorum. SOFT dersi icin gonderilen sinav yonetmeligini bir gorseniz yani bu baski altinda bilende unutur zaten yapamaz. "Sozde" calisanin hakkini korumak icin alinan onlemler gercegi yansitmiyor bu yuzden umarim en kisa zamanda okullar acilir ve bildigimiz derslerden kalmayiz.</t>
   </si>
   <si>
@@ -146,9 +144,6 @@
     <t>Bir üniversite düşün ki her hoca sadece kendi dersi varmışçasına ödevler projeler veriyor. Bir dersin bir dönemde 2 proje ,4 guiz, 2 vize, 1 finali olursa nasıl yetişecek diğer dersler? Birisi de ödevi el yazısıyla istiyor hani word kullanmak kolay ya.Hayret ediyorum. Amatörlük mü,art niyet mi karar sizin.</t>
   </si>
   <si>
-    <t>Okulumuzdaki bazı hocalar,bu bazı hocalara şanslıyım ki benim dersine girdiklerim dahil değil ama bu buraya bir şey yazmamam için bi sebep değil.Özellikle malum fakültedeki öğrencilere ne yapsak da ızdırap çektirsek diye düşündüklerini düşüneceğiz yakında.Ya her şeyden önce insan bu öğrenciler.Tamam zorluyorsunuz bu bir yandan iyi bir şey onlar için ama bir yandan da insanların ailesinde hasta olanlar uğraşanlar edenler var,donanım problemi yaşayanlar var,malum programın bilgisayarı aptal etmesinden dolayı sorun yaşayanlar var ve bu uygulamayı guizler sırasında istiyorlar guiz esnasında dondu kaldı tanıdıgımın bilgisayarı.Neden bu eziyet neden? Zaten bir sürü para ödüyoruz artık gerçekten insanları derste bırakmaya uğraşıyorlar! Ben dediğm gibi öğrencilerine bu tür zulümler uygulayan desek yanlış olmaz onlarla aynı derslere denk gelmiyorum AMA bir sürü öğrenciye yazık günah.Gerçekten hoşgörülü olan canım hocalarıma da teşekkürlerimi sunuyorum.Zor dönemden geçen bir insanız hepimiz.</t>
-  </si>
-  <si>
     <t>Sınav kağıdımı başka bir üniversitede hoca olan bir tanıdığıma gönderdim ve notlandırmasını rica ettim. İşlem hatasına göz yumamadığını ve 68 verdiğini söyledi. Bizim okuldaki hoca 19 vermiş 19. Bazı hocalar cidden kafayı yemiş durumda. Aile büyüklerimin hepsi korona nerdeyse. Hepsine ben yetişmeye çalışıyorum. Babanem düşüp omuzunu kırdı. Hareket edemiyor herşeyine ben koşuyorum. Annanemle dedem korona ve ağır geçiriyorlar. Dedem yoğun bakımda. Annanemede ben bakıyorum. Alzheimer hastası. Her saat dedemin nerde olduğu halkında yalan söyleyip tansiyonunu düşürmeye sakinleştirmeye çalışıyorum. Maddi durumumuz da yeterli değil. Kendim internetten bi şekilde para kazanmaya çalışıyorum ihtiyaçlarımızı karşılamak için. Bunların hiç birinden şikayetçi değilim. İsyan da etmiyorum. İsyan ettiğim şey bukadar karmaşanın içinde ders çalışmaya vakit ayırmaya çalışıyorum. Çünkü seneye bursum kesilecek ve ödeyemem.</t>
   </si>
   <si>
@@ -221,9 +216,6 @@
     <t>Add drop haftası haftaya mı başlıyor. Staj raporlarını haftaya mı vermeye başlayacağız?</t>
   </si>
   <si>
-    <t xml:space="preserve">Oryantasyon kapalı spor salonunda devam ediyo harika tedbir, hayet kalabalık ortamlar falan paylaşımlar yapılıyor. Festival havası var Işık'ta bizim mezuniyetimize niçin aynı özen gösterilmedi. </t>
-  </si>
-  <si>
     <t>Ders programı hala belli olmayan var mı benim dışımda?</t>
   </si>
   <si>
@@ -269,6 +261,42 @@
     <t>Ders programında derslerim online görünüyor fakat excel tablosunda hibrit yazıyor hangisi doğru?</t>
   </si>
   <si>
+    <t>Pandemi</t>
+  </si>
+  <si>
+    <t>Öğrenci İşleri</t>
+  </si>
+  <si>
+    <t>Yurtlar</t>
+  </si>
+  <si>
+    <t>Servis</t>
+  </si>
+  <si>
+    <t>Uzem</t>
+  </si>
+  <si>
+    <t>Bir dönem boyunca her dersine girdiğim, hiçbir quizini kaçırmadığım ve bütün ödevleri eksiksiz tamamladığım dersten sırf sunum yapmadığım için kaldığımı öğrendim. Dönem boyunca harcadığım zamanımı ve emeğimi çöpe attılar resmen. Işık üniversitesi allah belanı versin gençliğimizi çürüttün.</t>
+  </si>
+  <si>
+    <t>Okulumuzdaki bazı hocalar,bu bazı hocalara şanslıyım ki benim dersine girdiklerim dahil değil ama bu buraya bir şey yazmamam için bi sebep değil.Özellikle malum fakültedeki öğrencilere ne yapsak da ızdırap çektirsek diye düşündüklerini düşüneceğiz yakında.Ya her şeyden önce insan bu öğrenciler.Tamam zorluyorsunuz bu bir yandan iyi bir şey onlar için ama bir yandan da insanların ailesinde hasta olanlar uğraşanlar edenler var,donanım problemi yaşayanlar var,malum programın bilgisayarı aptal etmesinden dolayı sorun yaşayanlar var ve bu uygulamayı quizler sırasında istiyorlar quiz esnasında dondu kaldı tanıdıgımın bilgisayarı.Neden bu eziyet neden? Zaten bir sürü para ödüyoruz artık gerçekten insanları derste bırakmaya uğraşıyorlar! Ben dediğm gibi öğrencilerine bu tür zulümler uygulayan desek yanlış olmaz onlarla aynı derslere denk gelmiyorum AMA bir sürü öğrenciye yazık günah.Gerçekten hoşgörülü olan canım hocalarıma da teşekkürlerimi sunuyorum.Zor dönemden geçen bir insanız hepimiz.</t>
+  </si>
+  <si>
+    <t>Destek ve Hizmetler</t>
+  </si>
+  <si>
+    <t>Bilgi İşlem</t>
+  </si>
+  <si>
+    <t>Sağlık, Kültür ve Spor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oryantasyon kapalı spor salonunda devam ediyo harika tedbir, hayret kalabalık ortamlar falan paylaşımlar yapılıyor. Festival havası var Işık'ta bizim mezuniyetimize niçin aynı özen gösterilmedi. </t>
+  </si>
+  <si>
+    <t>Mali İşler</t>
+  </si>
+  <si>
     <t>Okulun ücretli-ücretsiz shuttlelarında neden hiç geç saatlere kampüse ulaşım sağlayamıyoruz, sağlayabilecek bir sefer yok? Öğrenciyiz, yurtlarda kalıyoruz Şile'ye genel olarak ulaşım sıkıntılı geç saatlerde (00:00 vs.) ulaşılabilecek hiçbir olasılığımız yok. Biz bir konsere bir tiyatroya akşam vakti gidemeyecek miyiz, gittik nasıl döneceğiz?</t>
   </si>
   <si>
@@ -306,12 +334,15 @@
   </si>
   <si>
     <t>Kadıköy'den kalkan shuttle tam olarak nerede ya Libadiye'den nasıl gidebilirim?</t>
+  </si>
+  <si>
+    <t>Dekanlık</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,19 +654,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,732 +677,1005 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="C85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="C87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="C88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="C91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Desktop\NLP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2D5CB-A473-40A6-B911-D264D861ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B244AE0-4510-4F39-9479-1DB3E5E2DB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="181">
   <si>
     <t>id</t>
   </si>
@@ -337,6 +337,237 @@
   </si>
   <si>
     <t>Dekanlık</t>
+  </si>
+  <si>
+    <t>Bordo(A-B) yurtlarda son iki haftadır su kıtlığı çekmeye başladık. Özellikle geceleri asla içme suyu olmuyor. Lütfen geldiği zaman suyu odalarınızda stoklamayın.</t>
+  </si>
+  <si>
+    <t>Erasmu stajı ile ilgili bir sorum olacaktı. İngilizce okuyorum ama hazırlığı direkt giriş yeterlilik sınavında atlamıştım ve exit sınavına hiç girmedim. Başvuru yaparken sistem yabancı dil belgesini zorunlu olarak istiyor. Sınav ne zaman oluyor nasıl başvuruluyor bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Yurt oda değişikliği oluyor mu hiçbir fikrim yok.</t>
+  </si>
+  <si>
+    <t>Merhaba developer student diye bir klüp var değil mi? Gördüm diye hatırlıyorum ama bulamıyorum.</t>
+  </si>
+  <si>
+    <t>Ders programında "yes" yazanlar online mı?</t>
+  </si>
+  <si>
+    <t>Merhaba, yurt iptali için son gün ne zaman bilen var mı?</t>
+  </si>
+  <si>
+    <t>Merhaba yurt ödemeleri ile alakalı işlem yapabilen var mı? Veya ödeme için sistemin açılacağı bir tarih varsa yazabilir misiniz?</t>
+  </si>
+  <si>
+    <t>Yurt iptal işlemi için en son gün ne zaman?</t>
+  </si>
+  <si>
+    <t>Dönem dondurma dilekçemi aktardım fakat FYK kurulu toplanacak karar bildirilecek diyor yarın mali yükümlülükler için son gün problem olur mu bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Yurt için gerekli belgeler neler ve ne zaman teslim ediyoruz?</t>
+  </si>
+  <si>
+    <t>AKTS ücreti ödenirken nasıl bir yol izleniyor? Ödeme yaparken ne yapmak lazım?</t>
+  </si>
+  <si>
+    <t>Yurt iptali Pazartesi mesai bitimine kadarmış, hangi derslerin online olduğu da Pazartesi açıklanacak. Pazartesi tüm derslerim online olursa iptal etmeyi düşünüyorum ancak dersler akşam mı açıklanır sabah mı bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Yurt iptali veya birine devretmek için ne yapmam gerekiyor?</t>
+  </si>
+  <si>
+    <t>Shuttle saatleri ne zaman belli olacak?</t>
+  </si>
+  <si>
+    <t>İngilizce inşaat mühendisliği koşullu derslerin koşuluna falan nasıl ulaşabilirim sitesinde bulamadım da.</t>
+  </si>
+  <si>
+    <t>Okul ücretini AKTS üzerinden yatırırken nasıl bir yol izleniyor? Parayı yatırırken açıklama kısmına mı yazmak gerekiyor?</t>
+  </si>
+  <si>
+    <t>Online post sistemi ile bu senenin ödemesini yaptım ama e-campus'de hala Holds%Warnings bölümünde ödeme uyarısı var aynı problemi yaşayan başkası var mı?</t>
+  </si>
+  <si>
+    <t>Bursumuz keslince 27 kredi alabiliyoruz diye duydum doğru mu acaba?</t>
+  </si>
+  <si>
+    <t>Yurt fiyatları neden bu kadar yüksek öğrenci konseyi bununla alakalı bir çalışma yapıyor mu?</t>
+  </si>
+  <si>
+    <t>Çalışma burslu öğrenciler için yurt ayarlanıyor mu?</t>
+  </si>
+  <si>
+    <t>Yurt başvurumu nasıl iptal edebilirim? Mail attım geri dönüş olmadı.</t>
+  </si>
+  <si>
+    <t>Bu dönem devamsızlık olacak mı?</t>
+  </si>
+  <si>
+    <t>Yurt tercihleri neden pandemi kararları alınmadan önce yapıldı? Belki de bu kararlardan ötürü yurt tutmayacaklar olacaktı. Yurtlar müdürlüğü bu kararların ardından iyi niyet gösterip iade isteyenlere tam iade yapacak mı? Yoksa bu zamanlamayı öğrenciler ticari bi strateji olarak mı değerlendirmeli?</t>
+  </si>
+  <si>
+    <t>Hibrit modelinde şehir dışında yaşayan öğrenciler için çevrimiçi ders önceliği verilir mi acaba?</t>
+  </si>
+  <si>
+    <t>Erasmus hibe konusunda bilgisi olan var mı? Kabul mektubu teslim süresinden 10 gün geçti ve hala okul bir şey açıklamadı.</t>
+  </si>
+  <si>
+    <t>Yurt sonuçları ne zaman açıklanacak belli mi?</t>
+  </si>
+  <si>
+    <t>2017'de kayıt oldum, tek dersim kaldı onun için akts olarak mı yoksa kredi olarak mı ödemesini yapacağım?</t>
+  </si>
+  <si>
+    <t>Okulda son dönemim ve dönem içinde staj yapacağım bunun için stajı ders olarak eklemeli miyim?</t>
+  </si>
+  <si>
+    <t>Staj yapacağımız şirkette ilgili mühendislikten en az 2 çalışan olması lazım gibi bir kural var mı?</t>
+  </si>
+  <si>
+    <t>Ben okuldan mezun oldum ama bana okul kep göndermiş. Bunu iade edecek miyim? Ben 2 sene önce mezun oldum niye kep gönderirler ki?</t>
+  </si>
+  <si>
+    <t>Geri ödemeli bursun başvuru süreci hakkında bilgi sahibi olan var mı? Yönergede nasıl başvurulacağına dair detayları bulamadım.</t>
+  </si>
+  <si>
+    <t>Tek ders sınavları için okula dilekçe yazdım fakat hala geri dönüş olmadı. Benime aynı durumda olan var mı?</t>
+  </si>
+  <si>
+    <t>Arkadaşlar zorunlu staj formlarının okul tarafından onaylanması tahminen kaç gün sürer?</t>
+  </si>
+  <si>
+    <t>Erasmus'a öğrenci seçilirken aynı okula tercih yapmış okuldaki bütün öğrenciler arasından mı seçiliyor yoksa aynı bölüm içindeki öğrencilerden mi seçiliyor? Kısacası, farklı bölümden öğrenciler birbirine rakip olabiliyor mu?</t>
+  </si>
+  <si>
+    <t>Maslak kampüsten gelen öğrencilere indirim yapın onlar yurtları doldursun. Yurtlarda yer kalmayacak evlere akın edeceğiz ev kiraları 2 katına çıkar artık.</t>
+  </si>
+  <si>
+    <t>Maslak'ta okuyan öğrencilerin bizden ne farkları var? Ya da şöyle sorayım bizim onlardan ne eksiğimiz var? Onlar indirimden yararlanırken biz neden yararlanamıyoruz?</t>
+  </si>
+  <si>
+    <t>Başka okuldan ders alacam fakat bizim okulla uyumlu olan hangi üniversite var bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Staj yaparken yaz okulu yapabilir miyiz?</t>
+  </si>
+  <si>
+    <t>Bizim okuldan aldığım ders ile başka bir okuldan aldığım dersin 3 saati çakışıyor. Bu konu hakkında ne yapabilirim?</t>
+  </si>
+  <si>
+    <t>Son dersimi başka bir okuldan almak için okula dilekçe verdim, kabul ettiler. Ama ders aldığım okulda kaydın bitmesine 1 gün kala kota dolmayacağı görünüyor. Başka bir okuldan alabilir miyim?</t>
+  </si>
+  <si>
+    <t>Erasmus başvurusunda yazılı dil puanı ve sözlü mülakattan barajı geçince başka bir eleme tarzı bir olay var mı? Yoksa barajı geçen herkes yerleşebiliyor mu?</t>
+  </si>
+  <si>
+    <t>Havale/Eft ile okula ödeme yapabiliyor muyuz?</t>
+  </si>
+  <si>
+    <t>Yaz okulu için akademik takvimde son ödeme günü 9 Temmuz yazıyor, doğru mu?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bir staj yeri bulduktan sonra bunu okula nasıl bildiriyoruz? Nereye nasıl yazmak gerekir? </t>
+  </si>
+  <si>
+    <t>Bölümüm İngilizce başka bir üniversitenin yaz okulundan istediğim dersin içeriği aynı ise Türkçe'sini alabilir miyim?</t>
+  </si>
+  <si>
+    <t>2015 girişliyim hazırlığı atladım bölüme başladım. Bu sene 6. senem bitti bölümde. 7 sene sonunda okuldan atılıyor muyum? Bursu kesilen ve son sınıf öğrencisi olan önkoşul olayına takılıyor mu?</t>
+  </si>
+  <si>
+    <t>Yüz yüze eğitim için geleceğimiz haftayı değiştirebiliyor muyuz?</t>
+  </si>
+  <si>
+    <t>1. aşıyı oldum ama 2. aşının zamanı gelmedi henüz, pazartesi okula gelirken ocr testi vermeme gerek var mı?</t>
+  </si>
+  <si>
+    <t>Bu dönem bölümü dondurdum. Kyk'dan kredi alıyordum. Kredi kesilir mi?</t>
+  </si>
+  <si>
+    <t>Ders programım yeni onaylandı Blackboard'da ne zaman işlenir bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Derslerde 2 çakışmanın kabul edilmesi için hiç mi çare yok bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Mezun olmak için 4 dersim kaldı. DD derslerimi almak zorunda mıyım?</t>
+  </si>
+  <si>
+    <t>Ben DGS sınavı ile geldim. Staj olaylarını bütün dersleri verdikten sonra yapmak gibi bir durum söz konusu oluyor mu?</t>
+  </si>
+  <si>
+    <t>Ödeme için 15'i son gün ve dönemi dondurmak istiyorum. Yine de dilekçeyi vermeden önce ödeme yapmam gerekiyor mu?</t>
+  </si>
+  <si>
+    <t>Bilgisayar mühendisliğinde 3. sınıf sayılabilmek için toplamda kaç krediyi vermiş olmamız gerekiyor?</t>
+  </si>
+  <si>
+    <t>Güz dönemi bi dersten çekilmiştim. Şimdi bahar dönemi tekrar açılıyor. O dersi almak zorunda mıyım, sistem açıldığı ilk dönem alma koşulu koyuyor mu?</t>
+  </si>
+  <si>
+    <t>Çap yapmak için dönem ortalamamız 2.5 ve F olmamalı değil mi?</t>
+  </si>
+  <si>
+    <t>Tek ders sınavı tarihleri vs. hakkında bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Ben final sınavlarının çoğuna yüz yüze girecek kişilerden biriyim ve vakaların böyle arttığı bir dönemde gelmek istemiyorum. Uzunca bir süredir korkumdan çok gerekmedikçe evden çıkmıyorum. Okula gelirken 3 vasıta değiştiriyorum ve hepsi de kalabalık oluyor. Bu konu hakkında bir şey yapılabilir mi?</t>
+  </si>
+  <si>
+    <t>Okul haftaya eğitimin yüz yüze devam edip etmeyeceğiyle ilgili net bir açıklama yaptı mı? Şehir dışından gelen öğrenciler için bunun önceden bildirilmiş olması önemli. Yurda gelip de 2 gün sonra geri dönmek istemiyorum.</t>
+  </si>
+  <si>
+    <t>Metrogarden'dan kalkan servisler AVM'nin otoparkında mı oluyor?</t>
+  </si>
+  <si>
+    <t>Bir bölümün ingilizcesinin türkçesine nasıl geçiliyor?</t>
+  </si>
+  <si>
+    <t>Hazırlıkta kaç saat devamsızlık hakkımız var?</t>
+  </si>
+  <si>
+    <t>Mezun olmama 4 ders kaldı fakat 3 tanesi bu dönem açıldı. Okul benden dönem parası istiyor, mali işler 3 ders parası verebilirsin diyor anlamadım gitti.</t>
+  </si>
+  <si>
+    <t>Add-drop haftasından sonra kayıt yaptıran var mı? Son tarihten sonra kayıt yaptırsam ne olur?</t>
+  </si>
+  <si>
+    <t>Bu dönem ücretimi yatırdım ama şuan dondurmak istiyorum. Dondurmak için ücret veriliyor mu? Verilmiyorsa ödediğim ücreti geri alabiliyor muyum?</t>
+  </si>
+  <si>
+    <t>Staj sürecinin işleyişi hakkında bilgi verebilecek olan var mı?</t>
+  </si>
+  <si>
+    <t>Ders programından ders dün ders çıkarıldı ve programlarımız onaylanmışken oldu bu. Yeniden sistem açtırıp ders seçmek zorunda kaldık. Bu durumda birçok derste kota sorunu ve çakışma ile karşılaştık.</t>
+  </si>
+  <si>
+    <t>Benim son senem nu sene mezun olmam gerekiyor fakat pandemiden ötürü staj yapamadım. Yaz tatilinde yapsam ne kadar ücret ödemem gerekiyor?</t>
+  </si>
+  <si>
+    <t>Ders seçimi gece mi açılıyor sabah 9'da mı?</t>
+  </si>
+  <si>
+    <t>ÇAP başvuruları ne zaman oluyor?</t>
+  </si>
+  <si>
+    <t>ÇAP için minimum not ortalamamızın kaç olması gerekiyor?</t>
+  </si>
+  <si>
+    <t>ÇAP yapınca YKS bursu kesiliyor mu?</t>
+  </si>
+  <si>
+    <t>Döneme irregular olarak başlayabiliyor muyum?</t>
+  </si>
+  <si>
+    <t>Disiplin soruşturması açılırsa burs kesilmesi oluyor mu?</t>
+  </si>
+  <si>
+    <t>Bir derste kotaya ihtiyacım var. E-campus üzerinden istek yolluyorum. Danışmanım kabul ediyor fakat kota yöneticisi hala görmedi. Kime mail atmam gerekir, nereye ulaşmam lazım?</t>
+  </si>
+  <si>
+    <t>Şu an ders ekleme bırakma haftasındayız fakat E-campus'te withdraw kapalı yazıyor. Bilgisi olan var mı?</t>
   </si>
 </sst>
 </file>
@@ -655,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,6 +1909,853 @@
         <v>81</v>
       </c>
     </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>131</v>
+      </c>
+      <c r="C120" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>179</v>
+      </c>
+      <c r="C125" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>154</v>
+      </c>
+      <c r="C145" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>155</v>
+      </c>
+      <c r="C146" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>159</v>
+      </c>
+      <c r="C150" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>162</v>
+      </c>
+      <c r="C153" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>163</v>
+      </c>
+      <c r="C154" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>164</v>
+      </c>
+      <c r="C155" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>169</v>
+      </c>
+      <c r="C160" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>171</v>
+      </c>
+      <c r="C162" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>174</v>
+      </c>
+      <c r="C165" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>175</v>
+      </c>
+      <c r="C166" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>177</v>
+      </c>
+      <c r="C168" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>178</v>
+      </c>
+      <c r="C169" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Desktop\NLP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B244AE0-4510-4F39-9479-1DB3E5E2DB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3F040B-5192-4361-8BF3-44C288B143E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="179">
   <si>
     <t>id</t>
   </si>
@@ -33,541 +33,535 @@
     <t>text</t>
   </si>
   <si>
+    <t>Açılış törenlerinde binlerce kişiyi bir araya toplayan, İşletme ekonominin düzenlediği etkinlikte maskesiz, mesafesiz eğlence, etkinlik ve eğitimler düzenleyen ve bunu açıkça paylaşan fakat 40 kişilik sınıfları bile virüsü bahane ederek uzaktan eğitim almaya mecbur kılan bir ışık üniversitesi bırakıyorum buraya</t>
+  </si>
+  <si>
+    <t>Okulun sitesinde paylaşılmış. Fiyatlar şaka gibi. Zaten adam akıllı saatlere bile koyamamişlar shuttle. Şu pandemi sürecinde bile bu kadar zam yapilmasi inanilir gibi degil. Bu fiyat artışlarına ses çıkarılmamasını anlayamiyorum. Hepimiz ögrenciyiz, bu fiyatlar nedir böyle? Ögrenci Konseyi ne yapıyor, bunlar fiyatları bu kadar arttirirken? Uyuyor musun ögrenci konseyi? Arkadaslar, lütfen gelin toplaşalım ve hakkımızı arayalım. Lütfen susmayın.</t>
+  </si>
+  <si>
+    <t>merhaba, 2. sınıfların kayıt günü bugün olduğu halde sistem kayıt gününüz gelmemiştir diyip uyarı veriyor, alttan sadece 1 dersim var halbuki. danışmanıma mail attım öğrenci işlerini arayıp neden sistemde 1. sınıf göründüğünü sorar mısın diyor farkında mı acaba öğrenci işlerine asla ulaşamadığımızın? yarım saattir aralıksız arıyorum ne bi açan var ne de ilgilenen. açtıklarında onlar da yine danışmanıma yönlendirecek başlarından savmak için. ben gerçekten bu okulun bu umursamazlığından çok sıkıldım o kadar para alıyorlar öğrencilerden daha sistemleri düzgün çalışmıyor, çöküyor. hadi diyelim ders seçimini yarın yapacağım acaba kota kalacak mı derslerde? bunaldım gerçekten</t>
+  </si>
+  <si>
+    <t>Bu nasıl bir rezilliktir ya sabah saat 9 dan beri proje dersine kota açmalarını bekliyoruz ne danışmanı maillere cevap verir ne kota yöneticisi başka öğretmenlerden bilgi alıyoruz ayıptır yazıktır ya mezun öğrencisine bu zulüm yapılmaz şubatta mezun olacak ve proje dersine kota bekleyen arkadaşlar beğenebilir? Admin paylaşırmısın lütfen.</t>
+  </si>
+  <si>
+    <t>Dalga geçer gibi mat102 dersini ilk kez bu dönem açmıyorlar ve bu ders birçok dersin ön koşulu. Sadece öğrencileri zora sokmak için yapmışlar bunu. İnandığınız neyse o sizin belanızı versin. Bir okul akademik ve yönetim olarak 2017'den bu yana ancak bu kadar düşer.</t>
+  </si>
+  <si>
+    <t>Ders programı hala açıklanmadı. Son sınıfım bir sürü seçmeli dersim var hangisini alacağımı bilmiyorum ve yarın ders seçimi var. Okulu arıyorum yardımcı olan yok. Şaşırtmadın yine Işık Üniversitesi.</t>
+  </si>
+  <si>
+    <t>Okulu bitirmeme 13 dersim var fakat proje derslerim önkoşullu olduğu için dönem dönem alabiliyor ve ya 1-2'yi tamamladıktan sonra 3'ü yaz okulunda alabiliyorum.Diğer derslerim bu süre zarfında bitecek ve sadece proje derslerim kalacak.Bunun için dönem ücretinin hepsini mi yoksa sadece aldığım dersin AKTS ücretini mi yatırmam gerekmekte?</t>
+  </si>
+  <si>
+    <t>Bursum kesildi 27 kredi alabileceğimi sanıyordum lakin 19 kredi alabiliyorum 2016 girişliyim bilgisi olan varsa yzabilir mi</t>
+  </si>
+  <si>
+    <t>Merhaba, okulun sırf virüs için dersleri online yapması ama sınavlara gelince yüzyüze yapması ne kadar normal benim tüm derslerim online mesela bir çok arkadaşımızın ki de öyle zannediyorum. Ben suan kendi sehrimde yaşıyorum online olduğu için ve sınavlar için okul a mi gelicem ? Şilede kalıcak hiç bir yer yokken o kadar insan şehir dısından nasıl gelicek? Ve virüs kapmamamız için online olan okul sınavları yüzyüze yapınca Virüs kapmıyor muyuz ben anlamadım.</t>
+  </si>
+  <si>
+    <t>Bütün yurtlar öyle mi bilmiyorum ama bordo yurtta kapılar pat güt kapanıyo kapı kolunu indirip o şekilde çıkarken kapınızı kapayın sabah akşam pat küt kapı sesi başım ağrıdı.</t>
+  </si>
+  <si>
+    <t>Işık Universitesi Oğrencilerinin dikkatine; o kadar sinirliyiz, öfkeliyiz. Bir öğrenci konseyinin elinden birşey bile gelemedi. Adamlar ortada yoklardı. Ne seçim vaatleri ile gelmişlerdi. Hepsi fos çıktı. Bu sefer kim aday olacaksa, okulumuzun canını yakması gerekmekte, gerekirse toplantılarda ne konuşuldu detaylı anlatmalı burada. Yani öğrenciden yana birini seçmeliyiz, artist veya kendini beğenmişe değil, okulun yönetimini derslerinin şeklini değiştirecek biri olmalı, öğrenciden yana olmalı. Okula astronomi merkezi yapcağım, havuzumuz olacak olan değil. Küçük düşünmeyin büyük düşünün.</t>
+  </si>
+  <si>
+    <t>Admin selam, okulun shuttle saatleriyle ilgili kime gitmek gerekiyor? Cumartesi günü en geç 21.00'da maslaktan servis var, eskiden 00.00 servisleri olurdu.Hafta içi bi işiniz olsa zaten dönemezsiniz.Bela okula gelmek zaten eziyet bide servis saatleri yok adamakıllı, bi rahatsız olan ben olamam bu durumdan. Konsey mi artık kim ilgileniyor bununla gidelim görüşelim.</t>
+  </si>
+  <si>
+    <t>okulun wifiyından dolayı bilgisayarımın görev çubuğu çöktü başka arkadaşlarım da aynı sorunu yaşıyor, okulun bu konuda bir şey yapması için bilgisayarlarınızın kullanılamaz hale gelmesi mi gerekiyor.</t>
+  </si>
+  <si>
+    <t>Dakka 1 gol 1 hemen çöktü güzel okulumuzun güzel ders seçme sayfası yahu sadece 4. Sınıflar seçiyor ama yine de çöküyor altı üstü kaç bin kişi var da düzgün bi site yapamıyorlar</t>
+  </si>
+  <si>
+    <t>maslak kampüsünün şileye taşınmasıyla birlikte yurt kapasitesinin çok üstünde bir başvuru olmuş. bu da demek oluyor ki başvuru yapan herkes kabul edilemeyecek ve açıkta kalacak. ayrıca yurt sonuçları okulun açılmasından 1 hafa önce belli olacak yani hala belli değil. diyelim ki yurt başvurumuz kabul edilmedi sokakta mı yatmamız gerekiyor?! madem okulda yeterince yurt kapasitesi yok o zaman kampüs taşımanın acelesi mi vardı? hadi taşıdın diyelim bu sorunlar niye gözardı ediliyo? bir alternatif düşünülmemiş ve öğrencilerin de bir alternatif plan yapmasına fırsat bile tanınmıyor. 1 hafta içerisinde insanlar nasıl başka bir yer bulsun? o kadar heyet kurul bilmem ne bu kadar karar alıyor da birinin de aklına bu problemler gelmiyo mu? hadi diyelim geldi ve gözardı ettiler, e bari düzgün bir açıklama yapın, ihtimallerden bahsedin, en önemlisi erken davranın..</t>
+  </si>
+  <si>
+    <t>Mali işlere yazıyorum öğrenci işlerine aktarıyor oraya yazıyorum başka bi yere aktarıyor. Telefonlar kesinlikle açılmıyor . Sorunlar kesinlikle çözülmüyor. Mahalle bakkalım daha iş bitirici bu okul çalışanlarından. Yazık</t>
+  </si>
+  <si>
+    <t>Yani bu nasıl mantık ben anlamış değilim. Maslaktan Şileye gelen öğrenciye %50 indirim yapıldığı zaman yurtlarda, zaten halihazırda şilede okuyan, yurtlarda kalmak durumunda olan öğrencilere haksızlık olmayacak mı? Bizler niye her lafa boyun eğiyoruz yetişkin insanlar olarak niye mantıksız kararlara itiraz etmiyoruz? Ya da en basitinden öğrenci konseyi (!) böyle rezil bi kararı paylaşabiliyor? Tamam maslaktakilerin de kampüs hayatı yaşayacak olması çok iyi onlar adına seviniyorum ama kimsenin hakkı gasp olmadan olmalı bu iş. Umarım konsey itiraf sayfalarını okuyordur ve yanlışlarını görüyordur.</t>
+  </si>
+  <si>
+    <t>Hocalarımız neden Final notlarını açıklamamakta diretiyorlar? Neden biz finalden kaç aldığımızı öğrenemiyoruz? Mail atıyorum Hoca harf notlarını girdim finalleri açıklamıyorum diyor yani amaç ne ?</t>
+  </si>
+  <si>
+    <t>Ağustos'ta ödeyip ödeme dekontunu mail atıp teyidini aldığım yurt borcumu sistemden silmedikleri ve 2 gündür ne bir mailime ne de bir telefonuma cevap vermedikleri için ders seçemedim. Teşekkürler ışık üniversitesi, harika bir üniversite deneyimi yaşatıyorsun gerçekten.</t>
+  </si>
+  <si>
+    <t>Işık üniversitesi yine öğrencisiyle dalga geçmeye devam ediyor. İki fakülteyi şileye taşı ama iki tane servis ver geç. Öğrencisini hiçe sayan, sadece müşteri olarak gören bir kurum.</t>
+  </si>
+  <si>
+    <t>Okulun acılmasına aşağı yukarı 1 ay var ve hala online mı yüz yüze mi belli değil. Bu insanlar ne zaman ev/yurt bakacak? Neden acıklama yapmıyorlar? Okul online olursa hem çalışıp hem okuyacak arkadaşlar var, yüz yüze olursa şehir dışından gelecek insanlar var... Neden yani her şeyi bu kadar yokuşa sürmek neden? Okula yeni gelen arkadaşlar; cehenneme hoşgeldiniz.</t>
+  </si>
+  <si>
+    <t>Demeyim demeyim dedim ama okulda Öğrenci Konseyi yok arkadaşlar. Başkanı kim, ne zaman seçildi, kim seçti bilen var mı? Devir teslim düzeninin olduğu, öğrencilerin seçmediği konseyin (çalışsalar bile) öğrencilere faydası ne kadar olabilir? Büyük hayaller, tarihi, güzel kampüsü hatta sırf adını Atatürk verdiği için gururlandığım, "Işıklı" olmanın ayrıcalık olduğunu düşündüğüm bir başlangıçtan utanarak mezun olma kısmına getirdiler beni. Umarım Türkiye gibi hak ettiği değişimi her alanda görür ve eskiye döner. Kalanlara sabır diliyorum.</t>
+  </si>
+  <si>
+    <t>Boşuna çene yoruyorsunuz. Burası bir okul değil ticarethane. Okul, pandemi dolayısıyla 2 dönem online oldu, bir ton masraftan kurtuldular ama yine de öğrencileri düşünüp indirim yapmak yerine fiyatları arttırdılar. Sonradan kdv'yi az aldılar. Hocalar desen not açıklamaz, kafasına göre not verir. Shuttle'lar desen git-gel 50 lira. Şimdi de giderleri en aza indirip herkesi bir kampüste toplayıp daha çok kazanacaklar. Bu kararı da şile belediyesi ile karşılıklı çıkar ilişkisi güderek almadılarsa ben de hiçbir şey bilmiyorum. Yeni tercih etmeyi düşünüp de burayı okuyan varsa GELMEYİN kardeşim bu okula. Batsınlar. Ya kaydınızı alın ya da mezun olup kurtulun.</t>
+  </si>
+  <si>
+    <t>Admin gizli olsun ya ben bu ekonomi hocalarının sınav kurallarını anlamaya çalışıyorum acaba kendileri derslerde slayt okumaktan başka bir iş yapmayıp konuyu adam akıllı öğretememelerinin faturasını bize katı kuralları koyarak mı kesiyorlar anlamadım ki kalem kullanma anladık ulan ses duyduğunda disipline göndermek veya puan kırmak nedir nefes alma diyorlar resmen insana.</t>
+  </si>
+  <si>
+    <t>Hocalar olarak yapabileceğimiz bir şey yok tavrı takınan politik doğrucu hocalarımıza şunu söylemek istiyorum; en azından bu kararı desteklemediğinizi söyleyin, öğrencilerin mağduriyetinden bahsedin. Öğrencinin mi, maaş çeklerinizin mi dostusunuz oturup bir düşünün.</t>
+  </si>
+  <si>
+    <t>okulu arayınca mail atmam gerektiğini söylüyolar fakat attığım maile günlerdir cevap vermiyolar.Bu öğrenci işlerine ulaşmak ne kadar zormuş. Başka ne şekil ulaşabilirim ? illa okula mı gitmem lazım ulaşabilmek için.</t>
+  </si>
+  <si>
+    <t>5 Şubattan beri yayınlanan ders programından dün ders çıkarıldı ve programlarımız onaylanmışken oldu bu. Yeniden sistem açtırıp ders seçmek zorunda kaldık. Bu durumda birçok derste kota sorunu ve çakışma ile karşılaştık. Diyecek en ufak bir sözüm bile yok sana ışık üniversitesi..</t>
+  </si>
+  <si>
+    <t>Gecen donem online diye acilmayan lab derslerini bu donem oyle bi ayarlamislari ki her dersle cakisiyor ve okul 1 dersten fazla cakismaya izin vermedigi icin dersleri alamiyoruz okulumuz 1 sene daha uzuyor.Herkes magdur bu durumdan dersleri acilmamasi okulun sorunu degilmis gibi birde destekte olmuyorlar ogrenciye.Bu sekilde magdur olan arkadaslarimiz varsa gonderiyi begensin topluca rektorluge mail atalim yeter artik bu okul nasil biticek yoksa?!</t>
+  </si>
+  <si>
+    <t>Her gecen gun bilgisayar muhendisligi hocalari daha da dusuncesiz davranamazlar diyorum ve her seferinde yaniliyorum. SOFT dersi icin gonderilen sinav yonetmeligini bir gorseniz yani bu baski altinda bilende unutur zaten yapamaz. "Sozde" calisanin hakkini korumak icin alinan onlemler gercegi yansitmiyor bu yuzden umarim en kisa zamanda okullar acilir ve bildigimiz derslerden kalmayiz.</t>
+  </si>
+  <si>
+    <t>Okulumuzda öyle bir eğitim anlayisi var ki hocanın şakşakcısı olursan tüm dersleri en kötü ba ile geçerken, gruptan aykırı bir şeyler başaran biri olursan dc dd gibi notlarla geçiyorsun. Sorarım sizlere biz şak şak için mi eğitim alıyoruz, başarı için mi?</t>
+  </si>
+  <si>
+    <t>Sınavı respondusta yaparken 15 dakika içinde çöktü bilgisayar. Daha ne yapmamız gerekiyo derdimizi anlamaları için.</t>
+  </si>
+  <si>
+    <t>Merhaba herkese, Tıpkı maillerdeki gibi başlamak istedim. Görünüşte ilgili ve bir o kadarda fikirlerimize duyarlı bir okul gibi gözükse de gerçek sadece mağduriyetten ibaret ENGL1301 sınavı tam bir rezaletle ile karşı karşıyaydık bu okul bana ilk dönemim olmasına rağmen stres sıkıntıdan başka birşey vermedi Işık üniversitesi hayatımı aydınlatmadan ziyade hayatımı kararttı. Haksızlık bu respondusss yerine çözüm bulunmalı. 2 dönem umarım yüzyüze egitim olur.</t>
+  </si>
+  <si>
+    <t>Makine mühendisliği okuyup statik dersinin finaline giren arkadaşlarla aynı problemi yaşadık klasik soru sorup zoomdan kamera açtırıp her soru için 2 3 şıklı yapıp ve her soru için 10 dk süre verip fotoğrafını çekip sisteme yükleme gibi bi eziyet inanınki insanlığa sığmaz ve bu dersi verememek okulu 1 sene uzatmak demek. Şikayette bulunsak derse giren hocaya ters düştüğümüz taktirde okul olcak 8 sene başka üniversitede okuyan arkadaşlarım böyle bi sınav çeşidi olmaz derken biz nie hala bu eziyetlere katlanmak zorunda kalıyoruz anlamıyorum yazıklar olsun diyip geçicem.</t>
+  </si>
+  <si>
+    <t>Respondus kullanılan ekonomi sınavında 45 soruya 60 dakika vermek. Kolumuzu kıpırdatamıyoruz zaten neden bu kadar soru sayısı anlamış değilim ?</t>
+  </si>
+  <si>
+    <t>Bir üniversite düşün ki her hoca sadece kendi dersi varmışçasına ödevler projeler veriyor. Bir dersin bir dönemde 2 proje ,4 guiz, 2 vize, 1 finali olursa nasıl yetişecek diğer dersler? Birisi de ödevi el yazısıyla istiyor hani word kullanmak kolay ya.Hayret ediyorum. Amatörlük mü,art niyet mi karar sizin.</t>
+  </si>
+  <si>
+    <t>Sınav kağıdımı başka bir üniversitede hoca olan bir tanıdığıma gönderdim ve notlandırmasını rica ettim. İşlem hatasına göz yumamadığını ve 68 verdiğini söyledi. Bizim okuldaki hoca 19 vermiş 19. Bazı hocalar cidden kafayı yemiş durumda. Aile büyüklerimin hepsi korona nerdeyse. Hepsine ben yetişmeye çalışıyorum. Babanem düşüp omuzunu kırdı. Hareket edemiyor herşeyine ben koşuyorum. Annanemle dedem korona ve ağır geçiriyorlar. Dedem yoğun bakımda. Annanemede ben bakıyorum. Alzheimer hastası. Her saat dedemin nerde olduğu halkında yalan söyleyip tansiyonunu düşürmeye sakinleştirmeye çalışıyorum. Maddi durumumuz da yeterli değil. Kendim internetten bi şekilde para kazanmaya çalışıyorum ihtiyaçlarımızı karşılamak için. Bunların hiç birinden şikayetçi değilim. İsyan da etmiyorum. İsyan ettiğim şey bukadar karmaşanın içinde ders çalışmaya vakit ayırmaya çalışıyorum. Çünkü seneye bursum kesilecek ve ödeyemem.</t>
+  </si>
+  <si>
+    <t>Zaten çok zor bir süreç yaşarken online eğitimle cebelleşirken neredeyse bütün akademisyenlerin Dersleri anlatmaya bile yeltenmeyip Google'dan bakın internetten bakın araştırın ve öyle çizin öğrenin demesi artık kafayı yememe sebep oluyor biz öğrenciler olarak bu süreçte iyisiyle kötüsüyle belki de en çok derslere fokuslandık ama akademisyenler her şey normalmiş gibi itirazlarımızı bile tembelliğe vuruyor ayrıca hiçbir şekilde gerçekten öğrenmek istediğimiz için ve anlatmaya tenezzül etmedikleri için sitem ettiğimizi fark edemiyorlar Artık bıktım tüm sorunlarla boğuşurken derslerden kalma korkusuyla öğrenmeden kopyalayarak çizim yapmaktan da bıktım beni buna zorlayan sistemden de bıktım lütfen bazı şeylere tepki göstermekten çekinmeyin 1-2 kişi tepki gösterince bunu tembel öğrencilerin ses çıkarması olarak algılıyorlar ama çoğunluk tepki gösterirse gerçekten değiştiremeyeceğimiz hiçbir şey yok ışık öğrencisinin bunun farkına varması gerekiyor birlikten kuvvet doğar.</t>
+  </si>
+  <si>
+    <t>Merhaba kolay gelsin, şu konuya kimse değinmiyor ama hocaların çoğunluğu derse haber vermeden geç geliyorlar. Yeri gelince örgünden farkı yok artık alıştınız diyen hocalarımızdan ricam bir zahmet örgünde ki gibi vaktinde yataktan çıkıp derse gelmeleri. Gerçekten PC başında saatler harcarken artık 1 dakikasının bile bir hocayı beklemekle geçmesine katlanamaz oldum.</t>
+  </si>
+  <si>
+    <t>Bu okulda hakkınızı aramaya çalışmayın arkadaşlar boşa çabalarsınız hiç bişey değiştirmez çabalarınız sınavları geç bitirme projelerinizde bile o kadar büyük hakkınızı yiyorlar ki aklınız almıyo kişiye göre ayrımcılık desen o da var işleri yarım insanlar yüksek not alırken tam anlamıyla herşeyini tamamlamış insanların en düşük notu alması gibi hakkını savunmaya çalıştıgında dekanlığa bile gitsen yapılanları anlatsan hakkını arasan hiç bişey değişmiyo ne de olsa kendi hocaları onları savunacaklar öğrenciyi kim savunsun öğrenci dersten kalsın okula paralar gelsin onların en çok istiyeceği şey o yüzden çabalamayınn arkadaşlarr daha çok üzüleceksiniz bu okulda.</t>
+  </si>
+  <si>
+    <t>Dersin ismini vermeyeceğim. İlk defa başıma geliyor ve yazmak istedim. Bu sıradan bir serzeniş olmayacak. Yazının devamını yazdım fakat sildim. Mesele sınav kuralları ile alakalıydı. Her şeyi geçtim, sadece şu konuda çok üzgünüm. Biz öğrenciler hakkımızı arayamıyoruz herhangi bir konuda. Okul dediğimiz bina bize teoriden başka hiçbir şey öğretmiyor. Bize hayata dair bir şeyler vermeli. Hakkımızı aramamız gerektiğini hatırlatmalı fakat başımıza bir şey gelir diye susuyoruz. Okul bizi, hayata karşı daha korkak hale getiriyor ama farkında değiliz. Bu sadece bu okul nezdinde değil. Türkiye'deki bütün okullar böyle. Benim çok başıma geldi. Okuldayken hocanın karşısında iki büklüm oldum defalarca. Bu korku düzeni değişmeli.</t>
+  </si>
+  <si>
+    <t>Derste respondus programının bilgisayara zarar verdiğini, bazı bilgisayarların çökmesine neden olduğunu söyledim ve çok komik bir yanıt aldım hocamız abartmayın madem çöküyorsa verilerinizi başka bir yere yedekleyin sorun ortadan kalkmış olur dedi, herkesin durumu olmayabiliyor benim için verilerden çok bilgisayarım daha önemli bilgisayarımda bir sorun oluştuğunda sanki aynı gün tekrar bilgisayar alabilecekmişim gibi davranıldı. Hocaların kendileri, öğrencilerden daha çok teknik problem yaşarken bizlerden bu kadar şeyi aynı anda yerine getirilmesini zorunlu tutmaları çok anlayışsızca eğitimci olarak ilk başta anlayışlı olmaları ve empati kurabilmelerini diliyorum.</t>
+  </si>
+  <si>
+    <t>Merhaba respondus artık gerçekten çalışmamaya başladı, bu zamana kadar takır takır çalışıyordu fakat 3 gündür uygulamada sorun yaşıyorum. Respondus uygulaması beni sınava almadı ilk 8 dakika, bütün kamera ve mikrofonu tanımladı yani bütün aşamalara onay verdi fakat en sonda sınavı başlatmadı, yüzümü tanımlamadığını belirtti her açıdan denememe rağmen birkaç dakika bu nedenden ötürü respondusu kapatıp tekrar yaptım. Bu yakın bir zamanda sizin de başınıza gelebilir. Lütfen artık birlik olup bu durumu düzeltelim.</t>
+  </si>
+  <si>
+    <t>Bir şey söylemek istiyorum, yaz okulu dönemi respondus ve webcam eklentisi hakkında ben arkadaşlarımıza uzuncana açıklama yaparken bize "çalış dersi geç", "ağlama", "okul okuyorsan yapacaksın" vb tepkiler veren arkadaşların bir kısmı dahil olmak üzere, bizi sallamayı geçtim bir de dalga geçenler dahil tutuşmuş şekilde çözüm arıyorlar, gerçekten gülünç durumdasınız. He belirteyim, aldığım derslerde respondus isteyen yok şu an ancak gelin şu durum beter hal almadan düzgün bir çözüm bulalım, hep birlilte. Tweet atmakla ses duyuramadık, cimer de çok ciddiye almıyor açıkçası, ya çözeceğiz ya da geçmiş olsun arkadaşlar.</t>
+  </si>
+  <si>
+    <t>Böyle bir saçmalık yok arkadaşlar hepimiz bir olalım ve şu kamera sistemini lütfen iptal ettirelim bahsettiğim sınav İngilizce sınavı ve hocalar acımasızca bize kameranı yoksa kamera alın diyor bu nasıl bir tavır belki benim durumum yok nerden biliyorsun madem öyle sevgili hocalarımız bize kamera alsın ben özel hayatıma müdahale edilmesini istemiyorum sonuç itibari ile uzaktan eğitim bizim isteğimizle olmadı bu kadar sıkıcaklarına bizi okula çağırıp gerekli önlemleri alıp bizleri okulda sınavda yapsınlar arkadaşlar gelin twitinde ıstegramda birlik olup şu işlemi iptal ediyorum ayrıca ben çalışıyorum 1:30 saat sınavmı olur nasıl yapacağımı kara kara düşünüyorum lütfen bir olalım bize destek çıkın lütfen bugün bize yarın size büyütelim bu olayı.</t>
+  </si>
+  <si>
+    <t>Merhaba respondus uygulaması ile ilgili bir şey belirtmek istiyorum. Sınav saati normalde 30 dakika, fakat respondusa girmeye çalıştığım sırada beni sınava almadı. "Yoğunluktan dolayı sizi sınava alamıyoruz, lütfen birkaç dakika bekleyin" yazısı ile karşı karşıya kaldım. Sınavı daha kısa sürede yapmak zorunda kaldım. Ayrıca bilgisayara yeni format atmama rağmen respondusu yükledikten sonra bilgisayarım yavaşladı ve de bazı uygulamalar çalışmamaya başladı. Lütfen bu konu hakkında birlik olup cimere yazalım.</t>
+  </si>
+  <si>
+    <t>Biz bu okula boşuna mı para veriyoruz veya verdiğimiz para nereye gidiyor, dk otomatları günlerdir bomboş, sebillerin çoğunda su bulunmuyor bunun sebebi nedir?</t>
+  </si>
+  <si>
+    <t>Geçenlerde yurtta bir yemek yapalım dedik vaziyet bu, daha önce bir sürü onur kırıcı söz yazıldı, hakaretlerde bulunuldu, şikayet edildi ve halen yine aynı durumu yapmaya devam ediyorlar açık açık ne istediklerini söylesinler onlar da rahat etsin biz de rahat edelim.</t>
+  </si>
+  <si>
+    <t>Çöpünüzü çöpe atmayı çoktan öğrenmiş olmanız gerekiyordu ama ne yazık ki öğrenememişsiniz. Kütüphanedeki camlı odaları lütfen pis bırakmayın kimse sizin çöpünüzü toplamak zorunda değil.</t>
+  </si>
+  <si>
+    <t>Pandemi önlemi altında vize haftası yaptılar ancak bir sınıfta 60 kişi sınava giriyoruz. Herkes yanyana oturuyor ve minimum 2 saat aynı kalabalıkta öksüren hapşıran insan kalabalığı ile birlikteyiz. Önlemden kastınız bu mu?</t>
+  </si>
+  <si>
+    <t>Birisi bana açıklayabilir mi aklım almıyor çünkü. Bu okul sanki dağ başında değilmiş gibi saat 8:30 a sınav koyuyorlar. Servise gidiyorsun serviste yer yok, otobüs seferleri kısıtlı. Lisede bile sınavlar en kötü ihtimal 2. derste yapılırdı. Merak ediyorum aklı başında bir yetkili bunları düşünemiyor mu? Kusura bakmayın ama bütün sorumluluk bizler de değil. Bu sınav programını yapanlar keşke biraz anlayışlı olsa.</t>
+  </si>
+  <si>
+    <t>Sınav takvimini açıklamak yerine sınav haftası yurtlarda konaklama ücretini açıklayan bir okulumuz var. Tek dertleri para. Öğrenciler umurlarında değil maalesef.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merhabalar, acaba bu okul sınavlar ile ilgili herhangi bir açıklama yapacak mı? Derslerimin hepsi online ve kalacak yer bulamıyorum. Ben gibi bir çok arkadaşım da mağdur. Sınavlara 1 hafta kalmışken bize hiçbir açıklama yapılmıyor bu hafta haber vericez diyorlar neyi verecekler acaba? Son 3 gün kala bunca insan nerde kalacak, herhangi bir şeyden haberi olan varsa yazabilirse çok sevinirim. </t>
+  </si>
+  <si>
+    <t>Merhaba arkadaşlar bir şey sormak istiyorum. 1. sınıfta üstten ders almak için gerekli şartlar neler? Bilen varsa yardımcı olursa çok sevinirim teşekkürler.</t>
+  </si>
+  <si>
+    <t>Merhaba, masa tenisi klübü hakkında bilgi almak istiyorum klüpte yetkili biri ulaşabilir mi ya da beğensin ben ulaşırım</t>
+  </si>
+  <si>
+    <t>Merhabalar, okulu dondurmak istiyorum ne yapmam gerekiyor bilgi verebilir misiniz öğrenci işlerini aradım ama ulaşamadım bilgilendirirseniz sevinirim.</t>
+  </si>
+  <si>
+    <t>Merhaba bana okuldan mail olarak 4333 TL tutarında e-arşiv faturası gönderilmiş. Mail olarak geri dönüş yaptım ancak cevap gelmedi. Bunun manası ne oluyor tam olarak? Başka bu maili alan var mı?</t>
+  </si>
+  <si>
+    <t>Okulun shuttle saatileriyle ilgili kime gitmek gerekiyor. Cumartesi günü en geç 21:00'da maslaktan servis var, eskiden 00:00 servisleri olurdu. Bi rahatsız olan ben olamam bu durumdan. Konsey mi artık kim ilgileniyor bunula gidelim görüşelim.</t>
+  </si>
+  <si>
+    <t>Arkadaşlar okulda ya da derslerde maske takmıyorsunuz, size yaklaşmıyoruz anladık ama servislerde takın bari. 1 saat yüzüne yapışmaz o maske merak etmeyin!</t>
+  </si>
+  <si>
+    <t>Add drop haftası haftaya mı başlıyor. Staj raporlarını haftaya mı vermeye başlayacağız?</t>
+  </si>
+  <si>
+    <t>Ders programı hala belli olmayan var mı benim dışımda?</t>
+  </si>
+  <si>
+    <t>Merhaba, pandemi şartlarındayız ve okul cidden anlamda çok pis. Cafeler, yemehaneler, sınıflar, lavaboları hiç demiyorum. Heryer çok pis ya öğrenciler pis ya da okul temizliğe dikkat etmiyor.</t>
+  </si>
+  <si>
+    <t>Arkadaşlar son dersimi de bu yaz verdim, temmuzdan sonrasında işlendi sisteme. Öğrenci işleri diyor ki yapmanız gereken işlemler var vesaire. Tam ne diye soracakken hat kesiliyor, bir daha da bağlanamıyorum. Mezuniyet için yapmanız gereken işlemler neler? Bir de diyor ki seneye kaldı sizin mezuniyetiniz. Bilgi verebilecek var mı?</t>
+  </si>
+  <si>
+    <t>Ders programımı yaptım ama bir sorundan dolayı onay için danışmana gönderemedim. Blackboard'umda dersler gözükmüyor ancak e-campus'te gözüküyor. Bana sorun çıkartır mı?</t>
+  </si>
+  <si>
+    <t>Merhaba, birinci sınıfların paket program ataması hala yapılmadı mı? E-campus'e girildiği zaman ders programı gözükmüyor. Herkes de böyle mi?</t>
+  </si>
+  <si>
+    <t>Okulun futbol takımı seçmeleri ne zaman oluyor bilen var mı acaba?</t>
+  </si>
+  <si>
+    <t>OOC kredili ve kredisiz dersler ne oluyor tam olarak kısaca açıklar mısınız?</t>
+  </si>
+  <si>
+    <t>İkinci doz aşımı yeni oldum en az 14 gün önceden yaptırmak gerekli miydi? Negatif pcr istenir mi okula girerken?</t>
+  </si>
+  <si>
+    <t>Arkadaşlar Emine Ekin'den neden bin tane mail alıyorum? Bir tek bana mı böyle? Gerçekten mail kutum hep ondan gelen maillerle dolu. Bu diğer arkadaşlardan kaynaklanıyorsa lütfen dikkat edebilirler mi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkadaşlar yurt taksidi ödeme seçeneği nasıl oluyor? Yurt anlaşmalı bankalardan tahsil ediyor da biz bankaya mı aylık olarak ödüyoruz? </t>
+  </si>
+  <si>
+    <t>Merhabalar Işık'tan yatay geçişle başka bi okula geçip sonrasında tekrar Işık'a geçme gibi bir durum yaşayan var mı?</t>
+  </si>
+  <si>
+    <t>Ohes4412 dersi örgün gözüküyor ama o ders normalde de online değil miydi? Ve bu derste çakışma sayılmıyordu diye hatırlıyorum doğru mu?</t>
+  </si>
+  <si>
+    <t>Merhaba, Bilişsel Süreçler ya da Psikopataloji dersini üstten almak istiyorum. Kalsam aynı dersi ücret ödemeden kendi döneminde tekrar alabilir miyim?</t>
+  </si>
+  <si>
+    <t>Ben hazırlık okuyordum kaldım ve okulumu  dondurup şubat ayındaki sınava kaydım donuk bir şekilde gireceğim fakat kayıt dondururken okula herhangi bir ücret ödeyecek miyim?</t>
+  </si>
+  <si>
+    <t>Ders programında derslerim online görünüyor fakat excel tablosunda hibrit yazıyor hangisi doğru?</t>
+  </si>
+  <si>
+    <t>Pandemi</t>
+  </si>
+  <si>
+    <t>Öğrenci İşleri</t>
+  </si>
+  <si>
+    <t>Yurtlar</t>
+  </si>
+  <si>
+    <t>Uzem</t>
+  </si>
+  <si>
+    <t>Bir dönem boyunca her dersine girdiğim, hiçbir quizini kaçırmadığım ve bütün ödevleri eksiksiz tamamladığım dersten sırf sunum yapmadığım için kaldığımı öğrendim. Dönem boyunca harcadığım zamanımı ve emeğimi çöpe attılar resmen. Işık üniversitesi allah belanı versin gençliğimizi çürüttün.</t>
+  </si>
+  <si>
+    <t>Okulumuzdaki bazı hocalar,bu bazı hocalara şanslıyım ki benim dersine girdiklerim dahil değil ama bu buraya bir şey yazmamam için bi sebep değil.Özellikle malum fakültedeki öğrencilere ne yapsak da ızdırap çektirsek diye düşündüklerini düşüneceğiz yakında.Ya her şeyden önce insan bu öğrenciler.Tamam zorluyorsunuz bu bir yandan iyi bir şey onlar için ama bir yandan da insanların ailesinde hasta olanlar uğraşanlar edenler var,donanım problemi yaşayanlar var,malum programın bilgisayarı aptal etmesinden dolayı sorun yaşayanlar var ve bu uygulamayı quizler sırasında istiyorlar quiz esnasında dondu kaldı tanıdıgımın bilgisayarı.Neden bu eziyet neden? Zaten bir sürü para ödüyoruz artık gerçekten insanları derste bırakmaya uğraşıyorlar! Ben dediğm gibi öğrencilerine bu tür zulümler uygulayan desek yanlış olmaz onlarla aynı derslere denk gelmiyorum AMA bir sürü öğrenciye yazık günah.Gerçekten hoşgörülü olan canım hocalarıma da teşekkürlerimi sunuyorum.Zor dönemden geçen bir insanız hepimiz.</t>
+  </si>
+  <si>
+    <t>Destek ve Hizmetler</t>
+  </si>
+  <si>
+    <t>Bilgi İşlem</t>
+  </si>
+  <si>
+    <t>Sağlık, Kültür ve Spor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oryantasyon kapalı spor salonunda devam ediyo harika tedbir, hayret kalabalık ortamlar falan paylaşımlar yapılıyor. Festival havası var Işık'ta bizim mezuniyetimize niçin aynı özen gösterilmedi. </t>
+  </si>
+  <si>
+    <t>Mali İşler</t>
+  </si>
+  <si>
+    <t>Okulun ücretli-ücretsiz shuttlelarında neden hiç geç saatlere kampüse ulaşım sağlayamıyoruz, sağlayabilecek bir sefer yok? Öğrenciyiz, yurtlarda kalıyoruz Şile'ye genel olarak ulaşım sıkıntılı geç saatlerde (00:00 vs.) ulaşılabilecek hiçbir olasılığımız yok. Biz bir konsere bir tiyatroya akşam vakti gidemeyecek miyiz, gittik nasıl döneceğiz?</t>
+  </si>
+  <si>
+    <t>İnternet alt yapısının sıkıntıları yüzünden derslerime giremiyorum. Dünden beri WeTransfer'den dosya göndermeye çalışıyorum. 1.3 gb'lık dosyayı 24 saat oldu şuan 12 saat daha ekledi.</t>
+  </si>
+  <si>
+    <t>Selamlar, kampüse gelmeden online olarak ilişiği kesebiliyor muyuz?</t>
+  </si>
+  <si>
+    <t>Okulun satranç klübü var mı?</t>
+  </si>
+  <si>
+    <t>İnternete bağlanmakta sorun yaşıyorum iki gündür. Beyaz ekranda kalıyor. Online derslerime bağlanamıyorum. Bu internet sorunları ne zaman düzelecek Işık Üniversitesi?</t>
+  </si>
+  <si>
+    <t>DMF'deki dolapları direkt olarak kullanabiliyor muyuz yoksa öncesinde dilekçe, ücret vs. gerekiyor mu?</t>
+  </si>
+  <si>
+    <t>Müzik evini kullanmak serbest mi acaba? Randevu falan alınıyor mu?</t>
+  </si>
+  <si>
+    <t>Kampüs içinde olan Komogene'nin numarasını bilen varsa yazabilir mi?</t>
+  </si>
+  <si>
+    <t>Shuttle Kozyatağı'nda nereden geçiyor?</t>
+  </si>
+  <si>
+    <t>Merhabalar, yurtların alt katındaki misafirhaneler hakkında bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Merhaba, Türkçe bölüm okuyorum, İngilizce bir ders seçmiştim. O dersin Türkçe'sine nasıl geçiş yapabilirim, bilginiz var mı?</t>
+  </si>
+  <si>
+    <t>Kadıköy'den kalkan shuttle Atatürk Caddesi Starbucks'ın önünde duruyor mu?</t>
+  </si>
+  <si>
+    <t>Kadıköy'den kalkan shuttle tam olarak nerede ya Libadiye'den nasıl gidebilirim?</t>
+  </si>
+  <si>
+    <t>Dekanlık</t>
+  </si>
+  <si>
+    <t>Bordo(A-B) yurtlarda son iki haftadır su kıtlığı çekmeye başladık. Özellikle geceleri asla içme suyu olmuyor. Lütfen geldiği zaman suyu odalarınızda stoklamayın.</t>
+  </si>
+  <si>
+    <t>Erasmu stajı ile ilgili bir sorum olacaktı. İngilizce okuyorum ama hazırlığı direkt giriş yeterlilik sınavında atlamıştım ve exit sınavına hiç girmedim. Başvuru yaparken sistem yabancı dil belgesini zorunlu olarak istiyor. Sınav ne zaman oluyor nasıl başvuruluyor bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Yurt oda değişikliği oluyor mu hiçbir fikrim yok.</t>
+  </si>
+  <si>
+    <t>Merhaba developer student diye bir klüp var değil mi? Gördüm diye hatırlıyorum ama bulamıyorum.</t>
+  </si>
+  <si>
+    <t>Ders programında "yes" yazanlar online mı?</t>
+  </si>
+  <si>
+    <t>Merhaba, yurt iptali için son gün ne zaman bilen var mı?</t>
+  </si>
+  <si>
+    <t>Merhaba yurt ödemeleri ile alakalı işlem yapabilen var mı? Veya ödeme için sistemin açılacağı bir tarih varsa yazabilir misiniz?</t>
+  </si>
+  <si>
+    <t>Yurt iptal işlemi için en son gün ne zaman?</t>
+  </si>
+  <si>
+    <t>Dönem dondurma dilekçemi aktardım fakat FYK kurulu toplanacak karar bildirilecek diyor yarın mali yükümlülükler için son gün problem olur mu bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Yurt için gerekli belgeler neler ve ne zaman teslim ediyoruz?</t>
+  </si>
+  <si>
+    <t>AKTS ücreti ödenirken nasıl bir yol izleniyor? Ödeme yaparken ne yapmak lazım?</t>
+  </si>
+  <si>
+    <t>Yurt iptali Pazartesi mesai bitimine kadarmış, hangi derslerin online olduğu da Pazartesi açıklanacak. Pazartesi tüm derslerim online olursa iptal etmeyi düşünüyorum ancak dersler akşam mı açıklanır sabah mı bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Yurt iptali veya birine devretmek için ne yapmam gerekiyor?</t>
+  </si>
+  <si>
+    <t>Shuttle saatleri ne zaman belli olacak?</t>
+  </si>
+  <si>
+    <t>İngilizce inşaat mühendisliği koşullu derslerin koşuluna falan nasıl ulaşabilirim sitesinde bulamadım da.</t>
+  </si>
+  <si>
+    <t>Okul ücretini AKTS üzerinden yatırırken nasıl bir yol izleniyor? Parayı yatırırken açıklama kısmına mı yazmak gerekiyor?</t>
+  </si>
+  <si>
+    <t>Online post sistemi ile bu senenin ödemesini yaptım ama e-campus'de hala Holds%Warnings bölümünde ödeme uyarısı var aynı problemi yaşayan başkası var mı?</t>
+  </si>
+  <si>
+    <t>Bursumuz keslince 27 kredi alabiliyoruz diye duydum doğru mu acaba?</t>
+  </si>
+  <si>
+    <t>Yurt fiyatları neden bu kadar yüksek öğrenci konseyi bununla alakalı bir çalışma yapıyor mu?</t>
+  </si>
+  <si>
+    <t>Çalışma burslu öğrenciler için yurt ayarlanıyor mu?</t>
+  </si>
+  <si>
+    <t>Yurt başvurumu nasıl iptal edebilirim? Mail attım geri dönüş olmadı.</t>
+  </si>
+  <si>
+    <t>Bu dönem devamsızlık olacak mı?</t>
+  </si>
+  <si>
+    <t>Yurt tercihleri neden pandemi kararları alınmadan önce yapıldı? Belki de bu kararlardan ötürü yurt tutmayacaklar olacaktı. Yurtlar müdürlüğü bu kararların ardından iyi niyet gösterip iade isteyenlere tam iade yapacak mı? Yoksa bu zamanlamayı öğrenciler ticari bi strateji olarak mı değerlendirmeli?</t>
+  </si>
+  <si>
+    <t>Hibrit modelinde şehir dışında yaşayan öğrenciler için çevrimiçi ders önceliği verilir mi acaba?</t>
+  </si>
+  <si>
+    <t>Erasmus hibe konusunda bilgisi olan var mı? Kabul mektubu teslim süresinden 10 gün geçti ve hala okul bir şey açıklamadı.</t>
+  </si>
+  <si>
+    <t>Yurt sonuçları ne zaman açıklanacak belli mi?</t>
+  </si>
+  <si>
+    <t>2017'de kayıt oldum, tek dersim kaldı onun için akts olarak mı yoksa kredi olarak mı ödemesini yapacağım?</t>
+  </si>
+  <si>
+    <t>Okulda son dönemim ve dönem içinde staj yapacağım bunun için stajı ders olarak eklemeli miyim?</t>
+  </si>
+  <si>
+    <t>Staj yapacağımız şirkette ilgili mühendislikten en az 2 çalışan olması lazım gibi bir kural var mı?</t>
+  </si>
+  <si>
+    <t>Ben okuldan mezun oldum ama bana okul kep göndermiş. Bunu iade edecek miyim? Ben 2 sene önce mezun oldum niye kep gönderirler ki?</t>
+  </si>
+  <si>
+    <t>Geri ödemeli bursun başvuru süreci hakkında bilgi sahibi olan var mı? Yönergede nasıl başvurulacağına dair detayları bulamadım.</t>
+  </si>
+  <si>
+    <t>Tek ders sınavları için okula dilekçe yazdım fakat hala geri dönüş olmadı. Benime aynı durumda olan var mı?</t>
+  </si>
+  <si>
+    <t>Arkadaşlar zorunlu staj formlarının okul tarafından onaylanması tahminen kaç gün sürer?</t>
+  </si>
+  <si>
+    <t>Erasmus'a öğrenci seçilirken aynı okula tercih yapmış okuldaki bütün öğrenciler arasından mı seçiliyor yoksa aynı bölüm içindeki öğrencilerden mi seçiliyor? Kısacası, farklı bölümden öğrenciler birbirine rakip olabiliyor mu?</t>
+  </si>
+  <si>
+    <t>Maslak kampüsten gelen öğrencilere indirim yapın onlar yurtları doldursun. Yurtlarda yer kalmayacak evlere akın edeceğiz ev kiraları 2 katına çıkar artık.</t>
+  </si>
+  <si>
+    <t>Maslak'ta okuyan öğrencilerin bizden ne farkları var? Ya da şöyle sorayım bizim onlardan ne eksiğimiz var? Onlar indirimden yararlanırken biz neden yararlanamıyoruz?</t>
+  </si>
+  <si>
+    <t>Başka okuldan ders alacam fakat bizim okulla uyumlu olan hangi üniversite var bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Staj yaparken yaz okulu yapabilir miyiz?</t>
+  </si>
+  <si>
+    <t>Bizim okuldan aldığım ders ile başka bir okuldan aldığım dersin 3 saati çakışıyor. Bu konu hakkında ne yapabilirim?</t>
+  </si>
+  <si>
+    <t>Son dersimi başka bir okuldan almak için okula dilekçe verdim, kabul ettiler. Ama ders aldığım okulda kaydın bitmesine 1 gün kala kota dolmayacağı görünüyor. Başka bir okuldan alabilir miyim?</t>
+  </si>
+  <si>
+    <t>Erasmus başvurusunda yazılı dil puanı ve sözlü mülakattan barajı geçince başka bir eleme tarzı bir olay var mı? Yoksa barajı geçen herkes yerleşebiliyor mu?</t>
+  </si>
+  <si>
+    <t>Havale/Eft ile okula ödeme yapabiliyor muyuz?</t>
+  </si>
+  <si>
+    <t>Yaz okulu için akademik takvimde son ödeme günü 9 Temmuz yazıyor, doğru mu?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bir staj yeri bulduktan sonra bunu okula nasıl bildiriyoruz? Nereye nasıl yazmak gerekir? </t>
+  </si>
+  <si>
+    <t>Bölümüm İngilizce başka bir üniversitenin yaz okulundan istediğim dersin içeriği aynı ise Türkçe'sini alabilir miyim?</t>
+  </si>
+  <si>
+    <t>2015 girişliyim hazırlığı atladım bölüme başladım. Bu sene 6. senem bitti bölümde. 7 sene sonunda okuldan atılıyor muyum? Bursu kesilen ve son sınıf öğrencisi olan önkoşul olayına takılıyor mu?</t>
+  </si>
+  <si>
+    <t>Yüz yüze eğitim için geleceğimiz haftayı değiştirebiliyor muyuz?</t>
+  </si>
+  <si>
+    <t>1. aşıyı oldum ama 2. aşının zamanı gelmedi henüz, pazartesi okula gelirken ocr testi vermeme gerek var mı?</t>
+  </si>
+  <si>
+    <t>Bu dönem bölümü dondurdum. Kyk'dan kredi alıyordum. Kredi kesilir mi?</t>
+  </si>
+  <si>
+    <t>Ders programım yeni onaylandı Blackboard'da ne zaman işlenir bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Derslerde 2 çakışmanın kabul edilmesi için hiç mi çare yok bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Mezun olmak için 4 dersim kaldı. DD derslerimi almak zorunda mıyım?</t>
+  </si>
+  <si>
+    <t>Ben DGS sınavı ile geldim. Staj olaylarını bütün dersleri verdikten sonra yapmak gibi bir durum söz konusu oluyor mu?</t>
+  </si>
+  <si>
+    <t>Ödeme için 15'i son gün ve dönemi dondurmak istiyorum. Yine de dilekçeyi vermeden önce ödeme yapmam gerekiyor mu?</t>
+  </si>
+  <si>
+    <t>Bilgisayar mühendisliğinde 3. sınıf sayılabilmek için toplamda kaç krediyi vermiş olmamız gerekiyor?</t>
+  </si>
+  <si>
+    <t>Güz dönemi bi dersten çekilmiştim. Şimdi bahar dönemi tekrar açılıyor. O dersi almak zorunda mıyım, sistem açıldığı ilk dönem alma koşulu koyuyor mu?</t>
+  </si>
+  <si>
+    <t>Çap yapmak için dönem ortalamamız 2.5 ve F olmamalı değil mi?</t>
+  </si>
+  <si>
+    <t>Tek ders sınavı tarihleri vs. hakkında bilgisi olan var mı?</t>
+  </si>
+  <si>
+    <t>Ben final sınavlarının çoğuna yüz yüze girecek kişilerden biriyim ve vakaların böyle arttığı bir dönemde gelmek istemiyorum. Uzunca bir süredir korkumdan çok gerekmedikçe evden çıkmıyorum. Okula gelirken 3 vasıta değiştiriyorum ve hepsi de kalabalık oluyor. Bu konu hakkında bir şey yapılabilir mi?</t>
+  </si>
+  <si>
+    <t>Okul haftaya eğitimin yüz yüze devam edip etmeyeceğiyle ilgili net bir açıklama yaptı mı? Şehir dışından gelen öğrenciler için bunun önceden bildirilmiş olması önemli. Yurda gelip de 2 gün sonra geri dönmek istemiyorum.</t>
+  </si>
+  <si>
+    <t>Metrogarden'dan kalkan servisler AVM'nin otoparkında mı oluyor?</t>
+  </si>
+  <si>
+    <t>Bir bölümün ingilizcesinin türkçesine nasıl geçiliyor?</t>
+  </si>
+  <si>
+    <t>Hazırlıkta kaç saat devamsızlık hakkımız var?</t>
+  </si>
+  <si>
+    <t>Mezun olmama 4 ders kaldı fakat 3 tanesi bu dönem açıldı. Okul benden dönem parası istiyor, mali işler 3 ders parası verebilirsin diyor anlamadım gitti.</t>
+  </si>
+  <si>
+    <t>Add-drop haftasından sonra kayıt yaptıran var mı? Son tarihten sonra kayıt yaptırsam ne olur?</t>
+  </si>
+  <si>
+    <t>Bu dönem ücretimi yatırdım ama şuan dondurmak istiyorum. Dondurmak için ücret veriliyor mu? Verilmiyorsa ödediğim ücreti geri alabiliyor muyum?</t>
+  </si>
+  <si>
+    <t>Staj sürecinin işleyişi hakkında bilgi verebilecek olan var mı?</t>
+  </si>
+  <si>
+    <t>Ders programından ders dün ders çıkarıldı ve programlarımız onaylanmışken oldu bu. Yeniden sistem açtırıp ders seçmek zorunda kaldık. Bu durumda birçok derste kota sorunu ve çakışma ile karşılaştık.</t>
+  </si>
+  <si>
+    <t>Benim son senem nu sene mezun olmam gerekiyor fakat pandemiden ötürü staj yapamadım. Yaz tatilinde yapsam ne kadar ücret ödemem gerekiyor?</t>
+  </si>
+  <si>
+    <t>Ders seçimi gece mi açılıyor sabah 9'da mı?</t>
+  </si>
+  <si>
+    <t>ÇAP başvuruları ne zaman oluyor?</t>
+  </si>
+  <si>
+    <t>ÇAP için minimum not ortalamamızın kaç olması gerekiyor?</t>
+  </si>
+  <si>
+    <t>ÇAP yapınca YKS bursu kesiliyor mu?</t>
+  </si>
+  <si>
+    <t>Döneme irregular olarak başlayabiliyor muyum?</t>
+  </si>
+  <si>
+    <t>Disiplin soruşturması açılırsa burs kesilmesi oluyor mu?</t>
+  </si>
+  <si>
+    <t>Bir derste kotaya ihtiyacım var. E-campus üzerinden istek yolluyorum. Danışmanım kabul ediyor fakat kota yöneticisi hala görmedi. Kime mail atmam gerekir, nereye ulaşmam lazım?</t>
+  </si>
+  <si>
+    <t>Şu an ders ekleme bırakma haftasındayız fakat E-campus'te withdraw kapalı yazıyor. Bilgisi olan var mı?</t>
+  </si>
+  <si>
     <t>subject</t>
-  </si>
-  <si>
-    <t>Açılış törenlerinde binlerce kişiyi bir araya toplayan, İşletme ekonominin düzenlediği etkinlikte maskesiz, mesafesiz eğlence, etkinlik ve eğitimler düzenleyen ve bunu açıkça paylaşan fakat 40 kişilik sınıfları bile virüsü bahane ederek uzaktan eğitim almaya mecbur kılan bir ışık üniversitesi bırakıyorum buraya</t>
-  </si>
-  <si>
-    <t>Okulun sitesinde paylaşılmış. Fiyatlar şaka gibi. Zaten adam akıllı saatlere bile koyamamişlar shuttle. Şu pandemi sürecinde bile bu kadar zam yapilmasi inanilir gibi degil. Bu fiyat artışlarına ses çıkarılmamasını anlayamiyorum. Hepimiz ögrenciyiz, bu fiyatlar nedir böyle? Ögrenci Konseyi ne yapıyor, bunlar fiyatları bu kadar arttirirken? Uyuyor musun ögrenci konseyi? Arkadaslar, lütfen gelin toplaşalım ve hakkımızı arayalım. Lütfen susmayın.</t>
-  </si>
-  <si>
-    <t>merhaba, 2. sınıfların kayıt günü bugün olduğu halde sistem kayıt gününüz gelmemiştir diyip uyarı veriyor, alttan sadece 1 dersim var halbuki. danışmanıma mail attım öğrenci işlerini arayıp neden sistemde 1. sınıf göründüğünü sorar mısın diyor farkında mı acaba öğrenci işlerine asla ulaşamadığımızın? yarım saattir aralıksız arıyorum ne bi açan var ne de ilgilenen. açtıklarında onlar da yine danışmanıma yönlendirecek başlarından savmak için. ben gerçekten bu okulun bu umursamazlığından çok sıkıldım o kadar para alıyorlar öğrencilerden daha sistemleri düzgün çalışmıyor, çöküyor. hadi diyelim ders seçimini yarın yapacağım acaba kota kalacak mı derslerde? bunaldım gerçekten</t>
-  </si>
-  <si>
-    <t>Bu nasıl bir rezilliktir ya sabah saat 9 dan beri proje dersine kota açmalarını bekliyoruz ne danışmanı maillere cevap verir ne kota yöneticisi başka öğretmenlerden bilgi alıyoruz ayıptır yazıktır ya mezun öğrencisine bu zulüm yapılmaz şubatta mezun olacak ve proje dersine kota bekleyen arkadaşlar beğenebilir? Admin paylaşırmısın lütfen.</t>
-  </si>
-  <si>
-    <t>Dalga geçer gibi mat102 dersini ilk kez bu dönem açmıyorlar ve bu ders birçok dersin ön koşulu. Sadece öğrencileri zora sokmak için yapmışlar bunu. İnandığınız neyse o sizin belanızı versin. Bir okul akademik ve yönetim olarak 2017'den bu yana ancak bu kadar düşer.</t>
-  </si>
-  <si>
-    <t>Ders programı hala açıklanmadı. Son sınıfım bir sürü seçmeli dersim var hangisini alacağımı bilmiyorum ve yarın ders seçimi var. Okulu arıyorum yardımcı olan yok. Şaşırtmadın yine Işık Üniversitesi.</t>
-  </si>
-  <si>
-    <t>Okulu bitirmeme 13 dersim var fakat proje derslerim önkoşullu olduğu için dönem dönem alabiliyor ve ya 1-2'yi tamamladıktan sonra 3'ü yaz okulunda alabiliyorum.Diğer derslerim bu süre zarfında bitecek ve sadece proje derslerim kalacak.Bunun için dönem ücretinin hepsini mi yoksa sadece aldığım dersin AKTS ücretini mi yatırmam gerekmekte?</t>
-  </si>
-  <si>
-    <t>Bursum kesildi 27 kredi alabileceğimi sanıyordum lakin 19 kredi alabiliyorum 2016 girişliyim bilgisi olan varsa yzabilir mi</t>
-  </si>
-  <si>
-    <t>Merhaba, okulun sırf virüs için dersleri online yapması ama sınavlara gelince yüzyüze yapması ne kadar normal benim tüm derslerim online mesela bir çok arkadaşımızın ki de öyle zannediyorum. Ben suan kendi sehrimde yaşıyorum online olduğu için ve sınavlar için okul a mi gelicem ? Şilede kalıcak hiç bir yer yokken o kadar insan şehir dısından nasıl gelicek? Ve virüs kapmamamız için online olan okul sınavları yüzyüze yapınca Virüs kapmıyor muyuz ben anlamadım.</t>
-  </si>
-  <si>
-    <t>Bütün yurtlar öyle mi bilmiyorum ama bordo yurtta kapılar pat güt kapanıyo kapı kolunu indirip o şekilde çıkarken kapınızı kapayın sabah akşam pat küt kapı sesi başım ağrıdı.</t>
-  </si>
-  <si>
-    <t>Işık Universitesi Oğrencilerinin dikkatine; o kadar sinirliyiz, öfkeliyiz. Bir öğrenci konseyinin elinden birşey bile gelemedi. Adamlar ortada yoklardı. Ne seçim vaatleri ile gelmişlerdi. Hepsi fos çıktı. Bu sefer kim aday olacaksa, okulumuzun canını yakması gerekmekte, gerekirse toplantılarda ne konuşuldu detaylı anlatmalı burada. Yani öğrenciden yana birini seçmeliyiz, artist veya kendini beğenmişe değil, okulun yönetimini derslerinin şeklini değiştirecek biri olmalı, öğrenciden yana olmalı. Okula astronomi merkezi yapcağım, havuzumuz olacak olan değil. Küçük düşünmeyin büyük düşünün.</t>
-  </si>
-  <si>
-    <t>Admin selam, okulun shuttle saatleriyle ilgili kime gitmek gerekiyor? Cumartesi günü en geç 21.00'da maslaktan servis var, eskiden 00.00 servisleri olurdu.Hafta içi bi işiniz olsa zaten dönemezsiniz.Bela okula gelmek zaten eziyet bide servis saatleri yok adamakıllı, bi rahatsız olan ben olamam bu durumdan. Konsey mi artık kim ilgileniyor bununla gidelim görüşelim.</t>
-  </si>
-  <si>
-    <t>okulun wifiyından dolayı bilgisayarımın görev çubuğu çöktü başka arkadaşlarım da aynı sorunu yaşıyor, okulun bu konuda bir şey yapması için bilgisayarlarınızın kullanılamaz hale gelmesi mi gerekiyor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merhaba, 2. sınıfların kayıt günü bugün olduğu halde sistem kayıt gününüz gelmemiştir diyip uyarı veriyor, alttan sadece 1 dersim var halbuki. danışmanıma mail attım öğrenci işlerini arayıp neden sistemde 1. sınıf göründüğünü sorar mısın diyor farkında mı acaba öğrenci işlerine asla ulaşamadığımızın? yarım saattir aralıksız arıyorum ne bi açan var ne de ilgilenen. açtıklarında onlar da yine danışmanıma yönlendirecek başlarından savmak için. ben gerçekten bu okulun bu umursamazlığından çok sıkıldım o kadar para alıyorlar öğrencilerden daha sistemleri düzgün çalışmıyor, çöküyor. hadi diyelim ders seçimini yarın yapacağım acaba kota kalacak mı derslerde? bunaldım gerçekten. </t>
-  </si>
-  <si>
-    <t>Dakka 1 gol 1 hemen çöktü güzel okulumuzun güzel ders seçme sayfası yahu sadece 4. Sınıflar seçiyor ama yine de çöküyor altı üstü kaç bin kişi var da düzgün bi site yapamıyorlar</t>
-  </si>
-  <si>
-    <t>maslak kampüsünün şileye taşınmasıyla birlikte yurt kapasitesinin çok üstünde bir başvuru olmuş. bu da demek oluyor ki başvuru yapan herkes kabul edilemeyecek ve açıkta kalacak. ayrıca yurt sonuçları okulun açılmasından 1 hafa önce belli olacak yani hala belli değil. diyelim ki yurt başvurumuz kabul edilmedi sokakta mı yatmamız gerekiyor?! madem okulda yeterince yurt kapasitesi yok o zaman kampüs taşımanın acelesi mi vardı? hadi taşıdın diyelim bu sorunlar niye gözardı ediliyo? bir alternatif düşünülmemiş ve öğrencilerin de bir alternatif plan yapmasına fırsat bile tanınmıyor. 1 hafta içerisinde insanlar nasıl başka bir yer bulsun? o kadar heyet kurul bilmem ne bu kadar karar alıyor da birinin de aklına bu problemler gelmiyo mu? hadi diyelim geldi ve gözardı ettiler, e bari düzgün bir açıklama yapın, ihtimallerden bahsedin, en önemlisi erken davranın..</t>
-  </si>
-  <si>
-    <t>Mali işlere yazıyorum öğrenci işlerine aktarıyor oraya yazıyorum başka bi yere aktarıyor. Telefonlar kesinlikle açılmıyor . Sorunlar kesinlikle çözülmüyor. Mahalle bakkalım daha iş bitirici bu okul çalışanlarından. Yazık</t>
-  </si>
-  <si>
-    <t>Yani bu nasıl mantık ben anlamış değilim. Maslaktan Şileye gelen öğrenciye %50 indirim yapıldığı zaman yurtlarda, zaten halihazırda şilede okuyan, yurtlarda kalmak durumunda olan öğrencilere haksızlık olmayacak mı? Bizler niye her lafa boyun eğiyoruz yetişkin insanlar olarak niye mantıksız kararlara itiraz etmiyoruz? Ya da en basitinden öğrenci konseyi (!) böyle rezil bi kararı paylaşabiliyor? Tamam maslaktakilerin de kampüs hayatı yaşayacak olması çok iyi onlar adına seviniyorum ama kimsenin hakkı gasp olmadan olmalı bu iş. Umarım konsey itiraf sayfalarını okuyordur ve yanlışlarını görüyordur.</t>
-  </si>
-  <si>
-    <t>Hocalarımız neden Final notlarını açıklamamakta diretiyorlar? Neden biz finalden kaç aldığımızı öğrenemiyoruz? Mail atıyorum Hoca harf notlarını girdim finalleri açıklamıyorum diyor yani amaç ne ?</t>
-  </si>
-  <si>
-    <t>Ağustos'ta ödeyip ödeme dekontunu mail atıp teyidini aldığım yurt borcumu sistemden silmedikleri ve 2 gündür ne bir mailime ne de bir telefonuma cevap vermedikleri için ders seçemedim. Teşekkürler ışık üniversitesi, harika bir üniversite deneyimi yaşatıyorsun gerçekten.</t>
-  </si>
-  <si>
-    <t>Işık üniversitesi yine öğrencisiyle dalga geçmeye devam ediyor. İki fakülteyi şileye taşı ama iki tane servis ver geç. Öğrencisini hiçe sayan, sadece müşteri olarak gören bir kurum.</t>
-  </si>
-  <si>
-    <t>Okulun acılmasına aşağı yukarı 1 ay var ve hala online mı yüz yüze mi belli değil. Bu insanlar ne zaman ev/yurt bakacak? Neden acıklama yapmıyorlar? Okul online olursa hem çalışıp hem okuyacak arkadaşlar var, yüz yüze olursa şehir dışından gelecek insanlar var... Neden yani her şeyi bu kadar yokuşa sürmek neden? Okula yeni gelen arkadaşlar; cehenneme hoşgeldiniz.</t>
-  </si>
-  <si>
-    <t>Demeyim demeyim dedim ama okulda Öğrenci Konseyi yok arkadaşlar. Başkanı kim, ne zaman seçildi, kim seçti bilen var mı? Devir teslim düzeninin olduğu, öğrencilerin seçmediği konseyin (çalışsalar bile) öğrencilere faydası ne kadar olabilir? Büyük hayaller, tarihi, güzel kampüsü hatta sırf adını Atatürk verdiği için gururlandığım, "Işıklı" olmanın ayrıcalık olduğunu düşündüğüm bir başlangıçtan utanarak mezun olma kısmına getirdiler beni. Umarım Türkiye gibi hak ettiği değişimi her alanda görür ve eskiye döner. Kalanlara sabır diliyorum.</t>
-  </si>
-  <si>
-    <t>Boşuna çene yoruyorsunuz. Burası bir okul değil ticarethane. Okul, pandemi dolayısıyla 2 dönem online oldu, bir ton masraftan kurtuldular ama yine de öğrencileri düşünüp indirim yapmak yerine fiyatları arttırdılar. Sonradan kdv'yi az aldılar. Hocalar desen not açıklamaz, kafasına göre not verir. Shuttle'lar desen git-gel 50 lira. Şimdi de giderleri en aza indirip herkesi bir kampüste toplayıp daha çok kazanacaklar. Bu kararı da şile belediyesi ile karşılıklı çıkar ilişkisi güderek almadılarsa ben de hiçbir şey bilmiyorum. Yeni tercih etmeyi düşünüp de burayı okuyan varsa GELMEYİN kardeşim bu okula. Batsınlar. Ya kaydınızı alın ya da mezun olup kurtulun.</t>
-  </si>
-  <si>
-    <t>Admin gizli olsun ya ben bu ekonomi hocalarının sınav kurallarını anlamaya çalışıyorum acaba kendileri derslerde slayt okumaktan başka bir iş yapmayıp konuyu adam akıllı öğretememelerinin faturasını bize katı kuralları koyarak mı kesiyorlar anlamadım ki kalem kullanma anladık ulan ses duyduğunda disipline göndermek veya puan kırmak nedir nefes alma diyorlar resmen insana.</t>
-  </si>
-  <si>
-    <t>Hocalar olarak yapabileceğimiz bir şey yok tavrı takınan politik doğrucu hocalarımıza şunu söylemek istiyorum; en azından bu kararı desteklemediğinizi söyleyin, öğrencilerin mağduriyetinden bahsedin. Öğrencinin mi, maaş çeklerinizin mi dostusunuz oturup bir düşünün.</t>
-  </si>
-  <si>
-    <t>okulu arayınca mail atmam gerektiğini söylüyolar fakat attığım maile günlerdir cevap vermiyolar.Bu öğrenci işlerine ulaşmak ne kadar zormuş. Başka ne şekil ulaşabilirim ? illa okula mı gitmem lazım ulaşabilmek için.</t>
-  </si>
-  <si>
-    <t>5 Şubattan beri yayınlanan ders programından dün ders çıkarıldı ve programlarımız onaylanmışken oldu bu. Yeniden sistem açtırıp ders seçmek zorunda kaldık. Bu durumda birçok derste kota sorunu ve çakışma ile karşılaştık. Diyecek en ufak bir sözüm bile yok sana ışık üniversitesi..</t>
-  </si>
-  <si>
-    <t>Gecen donem online diye acilmayan lab derslerini bu donem oyle bi ayarlamislari ki her dersle cakisiyor ve okul 1 dersten fazla cakismaya izin vermedigi icin dersleri alamiyoruz okulumuz 1 sene daha uzuyor.Herkes magdur bu durumdan dersleri acilmamasi okulun sorunu degilmis gibi birde destekte olmuyorlar ogrenciye.Bu sekilde magdur olan arkadaslarimiz varsa gonderiyi begensin topluca rektorluge mail atalim yeter artik bu okul nasil biticek yoksa?!</t>
-  </si>
-  <si>
-    <t>Her gecen gun bilgisayar muhendisligi hocalari daha da dusuncesiz davranamazlar diyorum ve her seferinde yaniliyorum. SOFT dersi icin gonderilen sinav yonetmeligini bir gorseniz yani bu baski altinda bilende unutur zaten yapamaz. "Sozde" calisanin hakkini korumak icin alinan onlemler gercegi yansitmiyor bu yuzden umarim en kisa zamanda okullar acilir ve bildigimiz derslerden kalmayiz.</t>
-  </si>
-  <si>
-    <t>Okulumuzda öyle bir eğitim anlayisi var ki hocanın şakşakcısı olursan tüm dersleri en kötü ba ile geçerken, gruptan aykırı bir şeyler başaran biri olursan dc dd gibi notlarla geçiyorsun. Sorarım sizlere biz şak şak için mi eğitim alıyoruz, başarı için mi?</t>
-  </si>
-  <si>
-    <t>Sınavı respondusta yaparken 15 dakika içinde çöktü bilgisayar. Daha ne yapmamız gerekiyo derdimizi anlamaları için.</t>
-  </si>
-  <si>
-    <t>Merhaba herkese, Tıpkı maillerdeki gibi başlamak istedim. Görünüşte ilgili ve bir o kadarda fikirlerimize duyarlı bir okul gibi gözükse de gerçek sadece mağduriyetten ibaret ENGL1301 sınavı tam bir rezaletle ile karşı karşıyaydık bu okul bana ilk dönemim olmasına rağmen stres sıkıntıdan başka birşey vermedi Işık üniversitesi hayatımı aydınlatmadan ziyade hayatımı kararttı. Haksızlık bu respondusss yerine çözüm bulunmalı. 2 dönem umarım yüzyüze egitim olur.</t>
-  </si>
-  <si>
-    <t>Makine mühendisliği okuyup statik dersinin finaline giren arkadaşlarla aynı problemi yaşadık klasik soru sorup zoomdan kamera açtırıp her soru için 2 3 şıklı yapıp ve her soru için 10 dk süre verip fotoğrafını çekip sisteme yükleme gibi bi eziyet inanınki insanlığa sığmaz ve bu dersi verememek okulu 1 sene uzatmak demek. Şikayette bulunsak derse giren hocaya ters düştüğümüz taktirde okul olcak 8 sene başka üniversitede okuyan arkadaşlarım böyle bi sınav çeşidi olmaz derken biz nie hala bu eziyetlere katlanmak zorunda kalıyoruz anlamıyorum yazıklar olsun diyip geçicem.</t>
-  </si>
-  <si>
-    <t>Respondus kullanılan ekonomi sınavında 45 soruya 60 dakika vermek. Kolumuzu kıpırdatamıyoruz zaten neden bu kadar soru sayısı anlamış değilim ?</t>
-  </si>
-  <si>
-    <t>Bir üniversite düşün ki her hoca sadece kendi dersi varmışçasına ödevler projeler veriyor. Bir dersin bir dönemde 2 proje ,4 guiz, 2 vize, 1 finali olursa nasıl yetişecek diğer dersler? Birisi de ödevi el yazısıyla istiyor hani word kullanmak kolay ya.Hayret ediyorum. Amatörlük mü,art niyet mi karar sizin.</t>
-  </si>
-  <si>
-    <t>Sınav kağıdımı başka bir üniversitede hoca olan bir tanıdığıma gönderdim ve notlandırmasını rica ettim. İşlem hatasına göz yumamadığını ve 68 verdiğini söyledi. Bizim okuldaki hoca 19 vermiş 19. Bazı hocalar cidden kafayı yemiş durumda. Aile büyüklerimin hepsi korona nerdeyse. Hepsine ben yetişmeye çalışıyorum. Babanem düşüp omuzunu kırdı. Hareket edemiyor herşeyine ben koşuyorum. Annanemle dedem korona ve ağır geçiriyorlar. Dedem yoğun bakımda. Annanemede ben bakıyorum. Alzheimer hastası. Her saat dedemin nerde olduğu halkında yalan söyleyip tansiyonunu düşürmeye sakinleştirmeye çalışıyorum. Maddi durumumuz da yeterli değil. Kendim internetten bi şekilde para kazanmaya çalışıyorum ihtiyaçlarımızı karşılamak için. Bunların hiç birinden şikayetçi değilim. İsyan da etmiyorum. İsyan ettiğim şey bukadar karmaşanın içinde ders çalışmaya vakit ayırmaya çalışıyorum. Çünkü seneye bursum kesilecek ve ödeyemem.</t>
-  </si>
-  <si>
-    <t>Zaten çok zor bir süreç yaşarken online eğitimle cebelleşirken neredeyse bütün akademisyenlerin Dersleri anlatmaya bile yeltenmeyip Google'dan bakın internetten bakın araştırın ve öyle çizin öğrenin demesi artık kafayı yememe sebep oluyor biz öğrenciler olarak bu süreçte iyisiyle kötüsüyle belki de en çok derslere fokuslandık ama akademisyenler her şey normalmiş gibi itirazlarımızı bile tembelliğe vuruyor ayrıca hiçbir şekilde gerçekten öğrenmek istediğimiz için ve anlatmaya tenezzül etmedikleri için sitem ettiğimizi fark edemiyorlar Artık bıktım tüm sorunlarla boğuşurken derslerden kalma korkusuyla öğrenmeden kopyalayarak çizim yapmaktan da bıktım beni buna zorlayan sistemden de bıktım lütfen bazı şeylere tepki göstermekten çekinmeyin 1-2 kişi tepki gösterince bunu tembel öğrencilerin ses çıkarması olarak algılıyorlar ama çoğunluk tepki gösterirse gerçekten değiştiremeyeceğimiz hiçbir şey yok ışık öğrencisinin bunun farkına varması gerekiyor birlikten kuvvet doğar.</t>
-  </si>
-  <si>
-    <t>Merhaba kolay gelsin, şu konuya kimse değinmiyor ama hocaların çoğunluğu derse haber vermeden geç geliyorlar. Yeri gelince örgünden farkı yok artık alıştınız diyen hocalarımızdan ricam bir zahmet örgünde ki gibi vaktinde yataktan çıkıp derse gelmeleri. Gerçekten PC başında saatler harcarken artık 1 dakikasının bile bir hocayı beklemekle geçmesine katlanamaz oldum.</t>
-  </si>
-  <si>
-    <t>Bu okulda hakkınızı aramaya çalışmayın arkadaşlar boşa çabalarsınız hiç bişey değiştirmez çabalarınız sınavları geç bitirme projelerinizde bile o kadar büyük hakkınızı yiyorlar ki aklınız almıyo kişiye göre ayrımcılık desen o da var işleri yarım insanlar yüksek not alırken tam anlamıyla herşeyini tamamlamış insanların en düşük notu alması gibi hakkını savunmaya çalıştıgında dekanlığa bile gitsen yapılanları anlatsan hakkını arasan hiç bişey değişmiyo ne de olsa kendi hocaları onları savunacaklar öğrenciyi kim savunsun öğrenci dersten kalsın okula paralar gelsin onların en çok istiyeceği şey o yüzden çabalamayınn arkadaşlarr daha çok üzüleceksiniz bu okulda.</t>
-  </si>
-  <si>
-    <t>Dersin ismini vermeyeceğim. İlk defa başıma geliyor ve yazmak istedim. Bu sıradan bir serzeniş olmayacak. Yazının devamını yazdım fakat sildim. Mesele sınav kuralları ile alakalıydı. Her şeyi geçtim, sadece şu konuda çok üzgünüm. Biz öğrenciler hakkımızı arayamıyoruz herhangi bir konuda. Okul dediğimiz bina bize teoriden başka hiçbir şey öğretmiyor. Bize hayata dair bir şeyler vermeli. Hakkımızı aramamız gerektiğini hatırlatmalı fakat başımıza bir şey gelir diye susuyoruz. Okul bizi, hayata karşı daha korkak hale getiriyor ama farkında değiliz. Bu sadece bu okul nezdinde değil. Türkiye'deki bütün okullar böyle. Benim çok başıma geldi. Okuldayken hocanın karşısında iki büklüm oldum defalarca. Bu korku düzeni değişmeli.</t>
-  </si>
-  <si>
-    <t>Derste respondus programının bilgisayara zarar verdiğini, bazı bilgisayarların çökmesine neden olduğunu söyledim ve çok komik bir yanıt aldım hocamız abartmayın madem çöküyorsa verilerinizi başka bir yere yedekleyin sorun ortadan kalkmış olur dedi, herkesin durumu olmayabiliyor benim için verilerden çok bilgisayarım daha önemli bilgisayarımda bir sorun oluştuğunda sanki aynı gün tekrar bilgisayar alabilecekmişim gibi davranıldı. Hocaların kendileri, öğrencilerden daha çok teknik problem yaşarken bizlerden bu kadar şeyi aynı anda yerine getirilmesini zorunlu tutmaları çok anlayışsızca eğitimci olarak ilk başta anlayışlı olmaları ve empati kurabilmelerini diliyorum.</t>
-  </si>
-  <si>
-    <t>Merhaba respondus artık gerçekten çalışmamaya başladı, bu zamana kadar takır takır çalışıyordu fakat 3 gündür uygulamada sorun yaşıyorum. Respondus uygulaması beni sınava almadı ilk 8 dakika, bütün kamera ve mikrofonu tanımladı yani bütün aşamalara onay verdi fakat en sonda sınavı başlatmadı, yüzümü tanımlamadığını belirtti her açıdan denememe rağmen birkaç dakika bu nedenden ötürü respondusu kapatıp tekrar yaptım. Bu yakın bir zamanda sizin de başınıza gelebilir. Lütfen artık birlik olup bu durumu düzeltelim.</t>
-  </si>
-  <si>
-    <t>Bir şey söylemek istiyorum, yaz okulu dönemi respondus ve webcam eklentisi hakkında ben arkadaşlarımıza uzuncana açıklama yaparken bize "çalış dersi geç", "ağlama", "okul okuyorsan yapacaksın" vb tepkiler veren arkadaşların bir kısmı dahil olmak üzere, bizi sallamayı geçtim bir de dalga geçenler dahil tutuşmuş şekilde çözüm arıyorlar, gerçekten gülünç durumdasınız. He belirteyim, aldığım derslerde respondus isteyen yok şu an ancak gelin şu durum beter hal almadan düzgün bir çözüm bulalım, hep birlilte. Tweet atmakla ses duyuramadık, cimer de çok ciddiye almıyor açıkçası, ya çözeceğiz ya da geçmiş olsun arkadaşlar.</t>
-  </si>
-  <si>
-    <t>Böyle bir saçmalık yok arkadaşlar hepimiz bir olalım ve şu kamera sistemini lütfen iptal ettirelim bahsettiğim sınav İngilizce sınavı ve hocalar acımasızca bize kameranı yoksa kamera alın diyor bu nasıl bir tavır belki benim durumum yok nerden biliyorsun madem öyle sevgili hocalarımız bize kamera alsın ben özel hayatıma müdahale edilmesini istemiyorum sonuç itibari ile uzaktan eğitim bizim isteğimizle olmadı bu kadar sıkıcaklarına bizi okula çağırıp gerekli önlemleri alıp bizleri okulda sınavda yapsınlar arkadaşlar gelin twitinde ıstegramda birlik olup şu işlemi iptal ediyorum ayrıca ben çalışıyorum 1:30 saat sınavmı olur nasıl yapacağımı kara kara düşünüyorum lütfen bir olalım bize destek çıkın lütfen bugün bize yarın size büyütelim bu olayı.</t>
-  </si>
-  <si>
-    <t>Merhaba respondus uygulaması ile ilgili bir şey belirtmek istiyorum. Sınav saati normalde 30 dakika, fakat respondusa girmeye çalıştığım sırada beni sınava almadı. "Yoğunluktan dolayı sizi sınava alamıyoruz, lütfen birkaç dakika bekleyin" yazısı ile karşı karşıya kaldım. Sınavı daha kısa sürede yapmak zorunda kaldım. Ayrıca bilgisayara yeni format atmama rağmen respondusu yükledikten sonra bilgisayarım yavaşladı ve de bazı uygulamalar çalışmamaya başladı. Lütfen bu konu hakkında birlik olup cimere yazalım.</t>
-  </si>
-  <si>
-    <t>Biz bu okula boşuna mı para veriyoruz veya verdiğimiz para nereye gidiyor, dk otomatları günlerdir bomboş, sebillerin çoğunda su bulunmuyor bunun sebebi nedir?</t>
-  </si>
-  <si>
-    <t>Geçenlerde yurtta bir yemek yapalım dedik vaziyet bu, daha önce bir sürü onur kırıcı söz yazıldı, hakaretlerde bulunuldu, şikayet edildi ve halen yine aynı durumu yapmaya devam ediyorlar açık açık ne istediklerini söylesinler onlar da rahat etsin biz de rahat edelim.</t>
-  </si>
-  <si>
-    <t>Çöpünüzü çöpe atmayı çoktan öğrenmiş olmanız gerekiyordu ama ne yazık ki öğrenememişsiniz. Kütüphanedeki camlı odaları lütfen pis bırakmayın kimse sizin çöpünüzü toplamak zorunda değil.</t>
-  </si>
-  <si>
-    <t>Pandemi önlemi altında vize haftası yaptılar ancak bir sınıfta 60 kişi sınava giriyoruz. Herkes yanyana oturuyor ve minimum 2 saat aynı kalabalıkta öksüren hapşıran insan kalabalığı ile birlikteyiz. Önlemden kastınız bu mu?</t>
-  </si>
-  <si>
-    <t>Birisi bana açıklayabilir mi aklım almıyor çünkü. Bu okul sanki dağ başında değilmiş gibi saat 8:30 a sınav koyuyorlar. Servise gidiyorsun serviste yer yok, otobüs seferleri kısıtlı. Lisede bile sınavlar en kötü ihtimal 2. derste yapılırdı. Merak ediyorum aklı başında bir yetkili bunları düşünemiyor mu? Kusura bakmayın ama bütün sorumluluk bizler de değil. Bu sınav programını yapanlar keşke biraz anlayışlı olsa.</t>
-  </si>
-  <si>
-    <t>Sınav takvimini açıklamak yerine sınav haftası yurtlarda konaklama ücretini açıklayan bir okulumuz var. Tek dertleri para. Öğrenciler umurlarında değil maalesef.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merhabalar, acaba bu okul sınavlar ile ilgili herhangi bir açıklama yapacak mı? Derslerimin hepsi online ve kalacak yer bulamıyorum. Ben gibi bir çok arkadaşım da mağdur. Sınavlara 1 hafta kalmışken bize hiçbir açıklama yapılmıyor bu hafta haber vericez diyorlar neyi verecekler acaba? Son 3 gün kala bunca insan nerde kalacak, herhangi bir şeyden haberi olan varsa yazabilirse çok sevinirim. </t>
-  </si>
-  <si>
-    <t>Merhaba arkadaşlar bir şey sormak istiyorum. 1. sınıfta üstten ders almak için gerekli şartlar neler? Bilen varsa yardımcı olursa çok sevinirim teşekkürler.</t>
-  </si>
-  <si>
-    <t>Merhaba, masa tenisi klübü hakkında bilgi almak istiyorum klüpte yetkili biri ulaşabilir mi ya da beğensin ben ulaşırım</t>
-  </si>
-  <si>
-    <t>Merhabalar, okulu dondurmak istiyorum ne yapmam gerekiyor bilgi verebilir misiniz öğrenci işlerini aradım ama ulaşamadım bilgilendirirseniz sevinirim.</t>
-  </si>
-  <si>
-    <t>Merhaba bana okuldan mail olarak 4333 TL tutarında e-arşiv faturası gönderilmiş. Mail olarak geri dönüş yaptım ancak cevap gelmedi. Bunun manası ne oluyor tam olarak? Başka bu maili alan var mı?</t>
-  </si>
-  <si>
-    <t>Okulun shuttle saatileriyle ilgili kime gitmek gerekiyor. Cumartesi günü en geç 21:00'da maslaktan servis var, eskiden 00:00 servisleri olurdu. Bi rahatsız olan ben olamam bu durumdan. Konsey mi artık kim ilgileniyor bunula gidelim görüşelim.</t>
-  </si>
-  <si>
-    <t>Arkadaşlar okulda ya da derslerde maske takmıyorsunuz, size yaklaşmıyoruz anladık ama servislerde takın bari. 1 saat yüzüne yapışmaz o maske merak etmeyin!</t>
-  </si>
-  <si>
-    <t>Add drop haftası haftaya mı başlıyor. Staj raporlarını haftaya mı vermeye başlayacağız?</t>
-  </si>
-  <si>
-    <t>Ders programı hala belli olmayan var mı benim dışımda?</t>
-  </si>
-  <si>
-    <t>Merhaba, pandemi şartlarındayız ve okul cidden anlamda çok pis. Cafeler, yemehaneler, sınıflar, lavaboları hiç demiyorum. Heryer çok pis ya öğrenciler pis ya da okul temizliğe dikkat etmiyor.</t>
-  </si>
-  <si>
-    <t>Arkadaşlar son dersimi de bu yaz verdim, temmuzdan sonrasında işlendi sisteme. Öğrenci işleri diyor ki yapmanız gereken işlemler var vesaire. Tam ne diye soracakken hat kesiliyor, bir daha da bağlanamıyorum. Mezuniyet için yapmanız gereken işlemler neler? Bir de diyor ki seneye kaldı sizin mezuniyetiniz. Bilgi verebilecek var mı?</t>
-  </si>
-  <si>
-    <t>Ders programımı yaptım ama bir sorundan dolayı onay için danışmana gönderemedim. Blackboard'umda dersler gözükmüyor ancak e-campus'te gözüküyor. Bana sorun çıkartır mı?</t>
-  </si>
-  <si>
-    <t>Merhaba, birinci sınıfların paket program ataması hala yapılmadı mı? E-campus'e girildiği zaman ders programı gözükmüyor. Herkes de böyle mi?</t>
-  </si>
-  <si>
-    <t>Okulun futbol takımı seçmeleri ne zaman oluyor bilen var mı acaba?</t>
-  </si>
-  <si>
-    <t>OOC kredili ve kredisiz dersler ne oluyor tam olarak kısaca açıklar mısınız?</t>
-  </si>
-  <si>
-    <t>İkinci doz aşımı yeni oldum en az 14 gün önceden yaptırmak gerekli miydi? Negatif pcr istenir mi okula girerken?</t>
-  </si>
-  <si>
-    <t>Arkadaşlar Emine Ekin'den neden bin tane mail alıyorum? Bir tek bana mı böyle? Gerçekten mail kutum hep ondan gelen maillerle dolu. Bu diğer arkadaşlardan kaynaklanıyorsa lütfen dikkat edebilirler mi?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkadaşlar yurt taksidi ödeme seçeneği nasıl oluyor? Yurt anlaşmalı bankalardan tahsil ediyor da biz bankaya mı aylık olarak ödüyoruz? </t>
-  </si>
-  <si>
-    <t>Merhabalar Işık'tan yatay geçişle başka bi okula geçip sonrasında tekrar Işık'a geçme gibi bir durum yaşayan var mı?</t>
-  </si>
-  <si>
-    <t>Ohes4412 dersi örgün gözüküyor ama o ders normalde de online değil miydi? Ve bu derste çakışma sayılmıyordu diye hatırlıyorum doğru mu?</t>
-  </si>
-  <si>
-    <t>Merhaba, Bilişsel Süreçler ya da Psikopataloji dersini üstten almak istiyorum. Kalsam aynı dersi ücret ödemeden kendi döneminde tekrar alabilir miyim?</t>
-  </si>
-  <si>
-    <t>Ben hazırlık okuyordum kaldım ve okulumu  dondurup şubat ayındaki sınava kaydım donuk bir şekilde gireceğim fakat kayıt dondururken okula herhangi bir ücret ödeyecek miyim?</t>
-  </si>
-  <si>
-    <t>Ders programında derslerim online görünüyor fakat excel tablosunda hibrit yazıyor hangisi doğru?</t>
-  </si>
-  <si>
-    <t>Pandemi</t>
-  </si>
-  <si>
-    <t>Öğrenci İşleri</t>
-  </si>
-  <si>
-    <t>Yurtlar</t>
-  </si>
-  <si>
-    <t>Servis</t>
-  </si>
-  <si>
-    <t>Uzem</t>
-  </si>
-  <si>
-    <t>Bir dönem boyunca her dersine girdiğim, hiçbir quizini kaçırmadığım ve bütün ödevleri eksiksiz tamamladığım dersten sırf sunum yapmadığım için kaldığımı öğrendim. Dönem boyunca harcadığım zamanımı ve emeğimi çöpe attılar resmen. Işık üniversitesi allah belanı versin gençliğimizi çürüttün.</t>
-  </si>
-  <si>
-    <t>Okulumuzdaki bazı hocalar,bu bazı hocalara şanslıyım ki benim dersine girdiklerim dahil değil ama bu buraya bir şey yazmamam için bi sebep değil.Özellikle malum fakültedeki öğrencilere ne yapsak da ızdırap çektirsek diye düşündüklerini düşüneceğiz yakında.Ya her şeyden önce insan bu öğrenciler.Tamam zorluyorsunuz bu bir yandan iyi bir şey onlar için ama bir yandan da insanların ailesinde hasta olanlar uğraşanlar edenler var,donanım problemi yaşayanlar var,malum programın bilgisayarı aptal etmesinden dolayı sorun yaşayanlar var ve bu uygulamayı quizler sırasında istiyorlar quiz esnasında dondu kaldı tanıdıgımın bilgisayarı.Neden bu eziyet neden? Zaten bir sürü para ödüyoruz artık gerçekten insanları derste bırakmaya uğraşıyorlar! Ben dediğm gibi öğrencilerine bu tür zulümler uygulayan desek yanlış olmaz onlarla aynı derslere denk gelmiyorum AMA bir sürü öğrenciye yazık günah.Gerçekten hoşgörülü olan canım hocalarıma da teşekkürlerimi sunuyorum.Zor dönemden geçen bir insanız hepimiz.</t>
-  </si>
-  <si>
-    <t>Destek ve Hizmetler</t>
-  </si>
-  <si>
-    <t>Bilgi İşlem</t>
-  </si>
-  <si>
-    <t>Sağlık, Kültür ve Spor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oryantasyon kapalı spor salonunda devam ediyo harika tedbir, hayret kalabalık ortamlar falan paylaşımlar yapılıyor. Festival havası var Işık'ta bizim mezuniyetimize niçin aynı özen gösterilmedi. </t>
-  </si>
-  <si>
-    <t>Mali İşler</t>
-  </si>
-  <si>
-    <t>Okulun ücretli-ücretsiz shuttlelarında neden hiç geç saatlere kampüse ulaşım sağlayamıyoruz, sağlayabilecek bir sefer yok? Öğrenciyiz, yurtlarda kalıyoruz Şile'ye genel olarak ulaşım sıkıntılı geç saatlerde (00:00 vs.) ulaşılabilecek hiçbir olasılığımız yok. Biz bir konsere bir tiyatroya akşam vakti gidemeyecek miyiz, gittik nasıl döneceğiz?</t>
-  </si>
-  <si>
-    <t>İnternet alt yapısının sıkıntıları yüzünden derslerime giremiyorum. Dünden beri WeTransfer'den dosya göndermeye çalışıyorum. 1.3 gb'lık dosyayı 24 saat oldu şuan 12 saat daha ekledi.</t>
-  </si>
-  <si>
-    <t>Selamlar, kampüse gelmeden online olarak ilişiği kesebiliyor muyuz?</t>
-  </si>
-  <si>
-    <t>Okulun satranç klübü var mı?</t>
-  </si>
-  <si>
-    <t>İnternete bağlanmakta sorun yaşıyorum iki gündür. Beyaz ekranda kalıyor. Online derslerime bağlanamıyorum. Bu internet sorunları ne zaman düzelecek Işık Üniversitesi?</t>
-  </si>
-  <si>
-    <t>DMF'deki dolapları direkt olarak kullanabiliyor muyuz yoksa öncesinde dilekçe, ücret vs. gerekiyor mu?</t>
-  </si>
-  <si>
-    <t>Müzik evini kullanmak serbest mi acaba? Randevu falan alınıyor mu?</t>
-  </si>
-  <si>
-    <t>Kampüs içinde olan Komogene'nin numarasını bilen varsa yazabilir mi?</t>
-  </si>
-  <si>
-    <t>Shuttle Kozyatağı'nda nereden geçiyor?</t>
-  </si>
-  <si>
-    <t>Merhabalar, yurtların alt katındaki misafirhaneler hakkında bilgisi olan var mı?</t>
-  </si>
-  <si>
-    <t>Merhaba, Türkçe bölüm okuyorum, İngilizce bir ders seçmiştim. O dersin Türkçe'sine nasıl geçiş yapabilirim, bilginiz var mı?</t>
-  </si>
-  <si>
-    <t>Kadıköy'den kalkan shuttle Atatürk Caddesi Starbucks'ın önünde duruyor mu?</t>
-  </si>
-  <si>
-    <t>Kadıköy'den kalkan shuttle tam olarak nerede ya Libadiye'den nasıl gidebilirim?</t>
-  </si>
-  <si>
-    <t>Dekanlık</t>
-  </si>
-  <si>
-    <t>Bordo(A-B) yurtlarda son iki haftadır su kıtlığı çekmeye başladık. Özellikle geceleri asla içme suyu olmuyor. Lütfen geldiği zaman suyu odalarınızda stoklamayın.</t>
-  </si>
-  <si>
-    <t>Erasmu stajı ile ilgili bir sorum olacaktı. İngilizce okuyorum ama hazırlığı direkt giriş yeterlilik sınavında atlamıştım ve exit sınavına hiç girmedim. Başvuru yaparken sistem yabancı dil belgesini zorunlu olarak istiyor. Sınav ne zaman oluyor nasıl başvuruluyor bilgisi olan var mı?</t>
-  </si>
-  <si>
-    <t>Yurt oda değişikliği oluyor mu hiçbir fikrim yok.</t>
-  </si>
-  <si>
-    <t>Merhaba developer student diye bir klüp var değil mi? Gördüm diye hatırlıyorum ama bulamıyorum.</t>
-  </si>
-  <si>
-    <t>Ders programında "yes" yazanlar online mı?</t>
-  </si>
-  <si>
-    <t>Merhaba, yurt iptali için son gün ne zaman bilen var mı?</t>
-  </si>
-  <si>
-    <t>Merhaba yurt ödemeleri ile alakalı işlem yapabilen var mı? Veya ödeme için sistemin açılacağı bir tarih varsa yazabilir misiniz?</t>
-  </si>
-  <si>
-    <t>Yurt iptal işlemi için en son gün ne zaman?</t>
-  </si>
-  <si>
-    <t>Dönem dondurma dilekçemi aktardım fakat FYK kurulu toplanacak karar bildirilecek diyor yarın mali yükümlülükler için son gün problem olur mu bilgisi olan var mı?</t>
-  </si>
-  <si>
-    <t>Yurt için gerekli belgeler neler ve ne zaman teslim ediyoruz?</t>
-  </si>
-  <si>
-    <t>AKTS ücreti ödenirken nasıl bir yol izleniyor? Ödeme yaparken ne yapmak lazım?</t>
-  </si>
-  <si>
-    <t>Yurt iptali Pazartesi mesai bitimine kadarmış, hangi derslerin online olduğu da Pazartesi açıklanacak. Pazartesi tüm derslerim online olursa iptal etmeyi düşünüyorum ancak dersler akşam mı açıklanır sabah mı bilgisi olan var mı?</t>
-  </si>
-  <si>
-    <t>Yurt iptali veya birine devretmek için ne yapmam gerekiyor?</t>
-  </si>
-  <si>
-    <t>Shuttle saatleri ne zaman belli olacak?</t>
-  </si>
-  <si>
-    <t>İngilizce inşaat mühendisliği koşullu derslerin koşuluna falan nasıl ulaşabilirim sitesinde bulamadım da.</t>
-  </si>
-  <si>
-    <t>Okul ücretini AKTS üzerinden yatırırken nasıl bir yol izleniyor? Parayı yatırırken açıklama kısmına mı yazmak gerekiyor?</t>
-  </si>
-  <si>
-    <t>Online post sistemi ile bu senenin ödemesini yaptım ama e-campus'de hala Holds%Warnings bölümünde ödeme uyarısı var aynı problemi yaşayan başkası var mı?</t>
-  </si>
-  <si>
-    <t>Bursumuz keslince 27 kredi alabiliyoruz diye duydum doğru mu acaba?</t>
-  </si>
-  <si>
-    <t>Yurt fiyatları neden bu kadar yüksek öğrenci konseyi bununla alakalı bir çalışma yapıyor mu?</t>
-  </si>
-  <si>
-    <t>Çalışma burslu öğrenciler için yurt ayarlanıyor mu?</t>
-  </si>
-  <si>
-    <t>Yurt başvurumu nasıl iptal edebilirim? Mail attım geri dönüş olmadı.</t>
-  </si>
-  <si>
-    <t>Bu dönem devamsızlık olacak mı?</t>
-  </si>
-  <si>
-    <t>Yurt tercihleri neden pandemi kararları alınmadan önce yapıldı? Belki de bu kararlardan ötürü yurt tutmayacaklar olacaktı. Yurtlar müdürlüğü bu kararların ardından iyi niyet gösterip iade isteyenlere tam iade yapacak mı? Yoksa bu zamanlamayı öğrenciler ticari bi strateji olarak mı değerlendirmeli?</t>
-  </si>
-  <si>
-    <t>Hibrit modelinde şehir dışında yaşayan öğrenciler için çevrimiçi ders önceliği verilir mi acaba?</t>
-  </si>
-  <si>
-    <t>Erasmus hibe konusunda bilgisi olan var mı? Kabul mektubu teslim süresinden 10 gün geçti ve hala okul bir şey açıklamadı.</t>
-  </si>
-  <si>
-    <t>Yurt sonuçları ne zaman açıklanacak belli mi?</t>
-  </si>
-  <si>
-    <t>2017'de kayıt oldum, tek dersim kaldı onun için akts olarak mı yoksa kredi olarak mı ödemesini yapacağım?</t>
-  </si>
-  <si>
-    <t>Okulda son dönemim ve dönem içinde staj yapacağım bunun için stajı ders olarak eklemeli miyim?</t>
-  </si>
-  <si>
-    <t>Staj yapacağımız şirkette ilgili mühendislikten en az 2 çalışan olması lazım gibi bir kural var mı?</t>
-  </si>
-  <si>
-    <t>Ben okuldan mezun oldum ama bana okul kep göndermiş. Bunu iade edecek miyim? Ben 2 sene önce mezun oldum niye kep gönderirler ki?</t>
-  </si>
-  <si>
-    <t>Geri ödemeli bursun başvuru süreci hakkında bilgi sahibi olan var mı? Yönergede nasıl başvurulacağına dair detayları bulamadım.</t>
-  </si>
-  <si>
-    <t>Tek ders sınavları için okula dilekçe yazdım fakat hala geri dönüş olmadı. Benime aynı durumda olan var mı?</t>
-  </si>
-  <si>
-    <t>Arkadaşlar zorunlu staj formlarının okul tarafından onaylanması tahminen kaç gün sürer?</t>
-  </si>
-  <si>
-    <t>Erasmus'a öğrenci seçilirken aynı okula tercih yapmış okuldaki bütün öğrenciler arasından mı seçiliyor yoksa aynı bölüm içindeki öğrencilerden mi seçiliyor? Kısacası, farklı bölümden öğrenciler birbirine rakip olabiliyor mu?</t>
-  </si>
-  <si>
-    <t>Maslak kampüsten gelen öğrencilere indirim yapın onlar yurtları doldursun. Yurtlarda yer kalmayacak evlere akın edeceğiz ev kiraları 2 katına çıkar artık.</t>
-  </si>
-  <si>
-    <t>Maslak'ta okuyan öğrencilerin bizden ne farkları var? Ya da şöyle sorayım bizim onlardan ne eksiğimiz var? Onlar indirimden yararlanırken biz neden yararlanamıyoruz?</t>
-  </si>
-  <si>
-    <t>Başka okuldan ders alacam fakat bizim okulla uyumlu olan hangi üniversite var bilgisi olan var mı?</t>
-  </si>
-  <si>
-    <t>Staj yaparken yaz okulu yapabilir miyiz?</t>
-  </si>
-  <si>
-    <t>Bizim okuldan aldığım ders ile başka bir okuldan aldığım dersin 3 saati çakışıyor. Bu konu hakkında ne yapabilirim?</t>
-  </si>
-  <si>
-    <t>Son dersimi başka bir okuldan almak için okula dilekçe verdim, kabul ettiler. Ama ders aldığım okulda kaydın bitmesine 1 gün kala kota dolmayacağı görünüyor. Başka bir okuldan alabilir miyim?</t>
-  </si>
-  <si>
-    <t>Erasmus başvurusunda yazılı dil puanı ve sözlü mülakattan barajı geçince başka bir eleme tarzı bir olay var mı? Yoksa barajı geçen herkes yerleşebiliyor mu?</t>
-  </si>
-  <si>
-    <t>Havale/Eft ile okula ödeme yapabiliyor muyuz?</t>
-  </si>
-  <si>
-    <t>Yaz okulu için akademik takvimde son ödeme günü 9 Temmuz yazıyor, doğru mu?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bir staj yeri bulduktan sonra bunu okula nasıl bildiriyoruz? Nereye nasıl yazmak gerekir? </t>
-  </si>
-  <si>
-    <t>Bölümüm İngilizce başka bir üniversitenin yaz okulundan istediğim dersin içeriği aynı ise Türkçe'sini alabilir miyim?</t>
-  </si>
-  <si>
-    <t>2015 girişliyim hazırlığı atladım bölüme başladım. Bu sene 6. senem bitti bölümde. 7 sene sonunda okuldan atılıyor muyum? Bursu kesilen ve son sınıf öğrencisi olan önkoşul olayına takılıyor mu?</t>
-  </si>
-  <si>
-    <t>Yüz yüze eğitim için geleceğimiz haftayı değiştirebiliyor muyuz?</t>
-  </si>
-  <si>
-    <t>1. aşıyı oldum ama 2. aşının zamanı gelmedi henüz, pazartesi okula gelirken ocr testi vermeme gerek var mı?</t>
-  </si>
-  <si>
-    <t>Bu dönem bölümü dondurdum. Kyk'dan kredi alıyordum. Kredi kesilir mi?</t>
-  </si>
-  <si>
-    <t>Ders programım yeni onaylandı Blackboard'da ne zaman işlenir bilgisi olan var mı?</t>
-  </si>
-  <si>
-    <t>Derslerde 2 çakışmanın kabul edilmesi için hiç mi çare yok bilgisi olan var mı?</t>
-  </si>
-  <si>
-    <t>Mezun olmak için 4 dersim kaldı. DD derslerimi almak zorunda mıyım?</t>
-  </si>
-  <si>
-    <t>Ben DGS sınavı ile geldim. Staj olaylarını bütün dersleri verdikten sonra yapmak gibi bir durum söz konusu oluyor mu?</t>
-  </si>
-  <si>
-    <t>Ödeme için 15'i son gün ve dönemi dondurmak istiyorum. Yine de dilekçeyi vermeden önce ödeme yapmam gerekiyor mu?</t>
-  </si>
-  <si>
-    <t>Bilgisayar mühendisliğinde 3. sınıf sayılabilmek için toplamda kaç krediyi vermiş olmamız gerekiyor?</t>
-  </si>
-  <si>
-    <t>Güz dönemi bi dersten çekilmiştim. Şimdi bahar dönemi tekrar açılıyor. O dersi almak zorunda mıyım, sistem açıldığı ilk dönem alma koşulu koyuyor mu?</t>
-  </si>
-  <si>
-    <t>Çap yapmak için dönem ortalamamız 2.5 ve F olmamalı değil mi?</t>
-  </si>
-  <si>
-    <t>Tek ders sınavı tarihleri vs. hakkında bilgisi olan var mı?</t>
-  </si>
-  <si>
-    <t>Ben final sınavlarının çoğuna yüz yüze girecek kişilerden biriyim ve vakaların böyle arttığı bir dönemde gelmek istemiyorum. Uzunca bir süredir korkumdan çok gerekmedikçe evden çıkmıyorum. Okula gelirken 3 vasıta değiştiriyorum ve hepsi de kalabalık oluyor. Bu konu hakkında bir şey yapılabilir mi?</t>
-  </si>
-  <si>
-    <t>Okul haftaya eğitimin yüz yüze devam edip etmeyeceğiyle ilgili net bir açıklama yaptı mı? Şehir dışından gelen öğrenciler için bunun önceden bildirilmiş olması önemli. Yurda gelip de 2 gün sonra geri dönmek istemiyorum.</t>
-  </si>
-  <si>
-    <t>Metrogarden'dan kalkan servisler AVM'nin otoparkında mı oluyor?</t>
-  </si>
-  <si>
-    <t>Bir bölümün ingilizcesinin türkçesine nasıl geçiliyor?</t>
-  </si>
-  <si>
-    <t>Hazırlıkta kaç saat devamsızlık hakkımız var?</t>
-  </si>
-  <si>
-    <t>Mezun olmama 4 ders kaldı fakat 3 tanesi bu dönem açıldı. Okul benden dönem parası istiyor, mali işler 3 ders parası verebilirsin diyor anlamadım gitti.</t>
-  </si>
-  <si>
-    <t>Add-drop haftasından sonra kayıt yaptıran var mı? Son tarihten sonra kayıt yaptırsam ne olur?</t>
-  </si>
-  <si>
-    <t>Bu dönem ücretimi yatırdım ama şuan dondurmak istiyorum. Dondurmak için ücret veriliyor mu? Verilmiyorsa ödediğim ücreti geri alabiliyor muyum?</t>
-  </si>
-  <si>
-    <t>Staj sürecinin işleyişi hakkında bilgi verebilecek olan var mı?</t>
-  </si>
-  <si>
-    <t>Ders programından ders dün ders çıkarıldı ve programlarımız onaylanmışken oldu bu. Yeniden sistem açtırıp ders seçmek zorunda kaldık. Bu durumda birçok derste kota sorunu ve çakışma ile karşılaştık.</t>
-  </si>
-  <si>
-    <t>Benim son senem nu sene mezun olmam gerekiyor fakat pandemiden ötürü staj yapamadım. Yaz tatilinde yapsam ne kadar ücret ödemem gerekiyor?</t>
-  </si>
-  <si>
-    <t>Ders seçimi gece mi açılıyor sabah 9'da mı?</t>
-  </si>
-  <si>
-    <t>ÇAP başvuruları ne zaman oluyor?</t>
-  </si>
-  <si>
-    <t>ÇAP için minimum not ortalamamızın kaç olması gerekiyor?</t>
-  </si>
-  <si>
-    <t>ÇAP yapınca YKS bursu kesiliyor mu?</t>
-  </si>
-  <si>
-    <t>Döneme irregular olarak başlayabiliyor muyum?</t>
-  </si>
-  <si>
-    <t>Disiplin soruşturması açılırsa burs kesilmesi oluyor mu?</t>
-  </si>
-  <si>
-    <t>Bir derste kotaya ihtiyacım var. E-campus üzerinden istek yolluyorum. Danışmanım kabul ediyor fakat kota yöneticisi hala görmedi. Kime mail atmam gerekir, nereye ulaşmam lazım?</t>
-  </si>
-  <si>
-    <t>Şu an ders ekleme bırakma haftasındayız fakat E-campus'te withdraw kapalı yazıyor. Bilgisi olan var mı?</t>
   </si>
 </sst>
 </file>
@@ -886,15 +880,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -924,10 +919,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,10 +930,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,10 +941,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,10 +952,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -968,10 +963,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,10 +974,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,10 +985,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,10 +996,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1012,10 +1007,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1023,10 +1018,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1045,10 +1040,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1056,10 +1051,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>79</v>
@@ -1078,10 +1073,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,10 +1084,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1100,10 +1095,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1111,10 +1106,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1122,10 +1117,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1133,10 +1128,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,10 +1139,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1155,10 +1150,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,10 +1161,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,10 +1172,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,10 +1183,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1199,10 +1194,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1210,10 +1205,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,10 +1216,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,10 +1227,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,10 +1238,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,10 +1249,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1265,7 +1260,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>79</v>
@@ -1276,10 +1271,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,10 +1282,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1298,10 +1293,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,10 +1304,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1320,10 +1315,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1331,10 +1326,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,10 +1337,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,10 +1348,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,10 +1359,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,10 +1370,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1386,7 +1381,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>79</v>
@@ -1397,10 +1392,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1408,10 +1403,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,10 +1414,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,7 +1428,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1441,10 +1436,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1452,10 +1447,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,10 +1458,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,10 +1469,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,10 +1480,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1496,10 +1491,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,10 +1502,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1518,10 +1513,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,10 +1524,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,10 +1535,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1551,10 +1546,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,10 +1557,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,10 +1568,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1584,10 +1579,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1595,10 +1590,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,10 +1601,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1617,10 +1612,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1628,10 +1623,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1639,10 +1634,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,10 +1645,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,10 +1656,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,10 +1667,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1683,10 +1678,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,10 +1689,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1705,10 +1700,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1716,10 +1711,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1727,10 +1722,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,10 +1733,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1749,10 +1744,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,10 +1755,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1771,10 +1766,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1782,10 +1777,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,10 +1788,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1804,10 +1799,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1815,10 +1810,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1826,10 +1821,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,10 +1832,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,10 +1843,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,10 +1854,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,10 +1865,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,10 +1876,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,10 +1887,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,10 +1898,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,10 +1909,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1925,10 +1920,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1936,10 +1931,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1947,10 +1942,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,10 +1953,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,10 +1964,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,10 +1975,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C99" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,10 +1986,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2002,10 +1997,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2013,10 +2008,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C102" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2024,10 +2019,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C103" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,10 +2030,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2046,10 +2041,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C105" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,10 +2052,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C106" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2068,10 +2063,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C107" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2079,10 +2074,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C108" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2090,10 +2085,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C109" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2101,10 +2096,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2112,10 +2107,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C111" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2123,10 +2118,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2134,10 +2129,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2145,10 +2140,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C114" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,10 +2151,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,10 +2162,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2178,10 +2173,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2189,10 +2184,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C118" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2200,10 +2195,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C119" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2211,10 +2206,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C120" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2222,10 +2217,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C121" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2233,10 +2228,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C122" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2244,10 +2239,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C123" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2255,10 +2250,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C124" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2266,10 +2261,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C125" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2277,10 +2272,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2288,10 +2283,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C127" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2299,10 +2294,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2310,10 +2305,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2321,10 +2316,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C130" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2332,10 +2327,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2343,10 +2338,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2354,10 +2349,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2365,10 +2360,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2376,10 +2371,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2387,10 +2382,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2398,10 +2393,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2409,10 +2404,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2420,10 +2415,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2431,10 +2426,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2442,10 +2437,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2453,10 +2448,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2464,7 +2459,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C143" t="s">
         <v>79</v>
@@ -2475,10 +2470,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2486,10 +2481,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,10 +2492,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2508,10 +2503,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C147" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2519,10 +2514,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2530,10 +2525,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2541,10 +2536,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C150" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2552,10 +2547,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C151" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2563,10 +2558,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2574,10 +2569,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C153" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2585,10 +2580,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2596,10 +2591,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C155" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2607,10 +2602,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C156" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2618,10 +2613,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C157" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2629,10 +2624,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C158" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2640,10 +2635,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2651,10 +2646,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2662,10 +2657,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2673,10 +2668,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2684,10 +2679,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C163" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2695,10 +2690,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C164" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2706,10 +2701,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C165" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2717,10 +2712,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C166" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2728,10 +2723,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C167" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2739,21 +2734,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C168" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>178</v>
-      </c>
-      <c r="C169" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
